--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28976501815657</v>
+        <v>25.46308309909242</v>
       </c>
       <c r="C2">
-        <v>11.78006629459864</v>
+        <v>18.6471048113855</v>
       </c>
       <c r="D2">
-        <v>9.84777549432822</v>
+        <v>2.677231734490704</v>
       </c>
       <c r="E2">
-        <v>14.05060038107654</v>
+        <v>6.087705676423685</v>
       </c>
       <c r="F2">
-        <v>63.28809040287491</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>42.82785216214469</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.675665773846901</v>
       </c>
       <c r="K2">
-        <v>17.79258121031867</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.14651751929006</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.15906586938824</v>
+      </c>
+      <c r="N2">
+        <v>14.16629976503014</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6754567676231</v>
+        <v>23.7885778509652</v>
       </c>
       <c r="C3">
-        <v>10.91862286437687</v>
+        <v>17.2989007026586</v>
       </c>
       <c r="D3">
-        <v>9.368937033601828</v>
+        <v>2.618813986782722</v>
       </c>
       <c r="E3">
-        <v>12.99234955700947</v>
+        <v>6.080676656572345</v>
       </c>
       <c r="F3">
-        <v>59.33615139712101</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>41.11981752918215</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.704011276824646</v>
       </c>
       <c r="K3">
-        <v>16.46885367128128</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.02374082624555</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.31957566477673</v>
+      </c>
+      <c r="N3">
+        <v>14.36906239386586</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.64387118835338</v>
+        <v>22.73096822329569</v>
       </c>
       <c r="C4">
-        <v>10.36987662401806</v>
+        <v>16.4727574482726</v>
       </c>
       <c r="D4">
-        <v>9.070822704231842</v>
+        <v>2.583581772772201</v>
       </c>
       <c r="E4">
-        <v>12.32207142380492</v>
+        <v>6.078770110518189</v>
       </c>
       <c r="F4">
-        <v>56.84398837799222</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>40.08605395256332</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.723699829789279</v>
       </c>
       <c r="K4">
-        <v>15.62253958063097</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.30639173479415</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.79843312807794</v>
+      </c>
+      <c r="N4">
+        <v>14.49841923639646</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21295395285423</v>
+        <v>22.29124028722471</v>
       </c>
       <c r="C5">
-        <v>10.14102134272076</v>
+        <v>16.13009336013433</v>
       </c>
       <c r="D5">
-        <v>8.948280246775195</v>
+        <v>2.56935208806121</v>
       </c>
       <c r="E5">
-        <v>12.07379132922248</v>
+        <v>6.078583381566912</v>
       </c>
       <c r="F5">
-        <v>55.8117817016528</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>39.66876054433121</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.73228045326846</v>
       </c>
       <c r="K5">
-        <v>15.2688765090255</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.00673684758075</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.58482834917818</v>
+      </c>
+      <c r="N5">
+        <v>14.55231840962452</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14075386430018</v>
+        <v>22.21770109620785</v>
       </c>
       <c r="C6">
-        <v>10.1026969678521</v>
+        <v>16.07272320195388</v>
       </c>
       <c r="D6">
-        <v>8.927868013095742</v>
+        <v>2.566996091390589</v>
       </c>
       <c r="E6">
-        <v>12.03231729842956</v>
+        <v>6.078587582806886</v>
       </c>
       <c r="F6">
-        <v>55.63938164180523</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>39.5997165221322</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.733738454040847</v>
       </c>
       <c r="K6">
-        <v>15.20961100856205</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.95652858691807</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.54929157094097</v>
+      </c>
+      <c r="N6">
+        <v>14.56133896578678</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6381028209467</v>
+        <v>22.72507307232528</v>
       </c>
       <c r="C7">
-        <v>10.36681171847601</v>
+        <v>16.46816776065656</v>
       </c>
       <c r="D7">
-        <v>9.069174353412835</v>
+        <v>2.583389389431495</v>
       </c>
       <c r="E7">
-        <v>12.31873961101127</v>
+        <v>6.078765222477801</v>
       </c>
       <c r="F7">
-        <v>56.83013498270525</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>40.08040977921244</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.723813315674213</v>
       </c>
       <c r="K7">
-        <v>15.61780595544928</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.30238053183568</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.79555708302496</v>
+      </c>
+      <c r="N7">
+        <v>14.49914138414887</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74128958836853</v>
+        <v>24.88689537365979</v>
       </c>
       <c r="C8">
-        <v>11.48699069193119</v>
+        <v>18.18979453534931</v>
       </c>
       <c r="D8">
-        <v>9.683499188751266</v>
+        <v>2.656936630662233</v>
       </c>
       <c r="E8">
-        <v>13.69105817200082</v>
+        <v>6.084772293135144</v>
       </c>
       <c r="F8">
-        <v>61.9389345443796</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>42.23591665428966</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.684954464282453</v>
       </c>
       <c r="K8">
-        <v>17.34289881456278</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.76499658188732</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.87089276359943</v>
+      </c>
+      <c r="N8">
+        <v>14.23517921770539</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.56540594498608</v>
+        <v>29.11781626344328</v>
       </c>
       <c r="C9">
-        <v>13.53978672622825</v>
+        <v>21.35792522223817</v>
       </c>
       <c r="D9">
-        <v>10.85852436591684</v>
+        <v>2.807876539302476</v>
       </c>
       <c r="E9">
-        <v>16.19825306685932</v>
+        <v>6.116434207838087</v>
       </c>
       <c r="F9">
-        <v>71.45639066429725</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>46.57685800073774</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.62773219376275</v>
       </c>
       <c r="K9">
-        <v>20.47775308880011</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.42687264728963</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.92865046436216</v>
+      </c>
+      <c r="N9">
+        <v>13.75820447876676</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.22606411591178</v>
+        <v>32.04054137467428</v>
       </c>
       <c r="C10">
-        <v>14.98262246967152</v>
+        <v>23.52705419003244</v>
       </c>
       <c r="D10">
-        <v>11.710773789844</v>
+        <v>2.925563692780615</v>
       </c>
       <c r="E10">
-        <v>17.94387404818973</v>
+        <v>6.152996012519713</v>
       </c>
       <c r="F10">
-        <v>78.19435694114128</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>49.83722899667015</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.598606515640093</v>
       </c>
       <c r="K10">
-        <v>22.65951449677066</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.28251961613811</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.64734904293049</v>
+      </c>
+      <c r="N10">
+        <v>13.43631880837513</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.41387605115702</v>
+        <v>33.32836240234883</v>
       </c>
       <c r="C11">
-        <v>15.6312000492984</v>
+        <v>24.48356770789647</v>
       </c>
       <c r="D11">
-        <v>12.09865998694293</v>
+        <v>2.981312172116839</v>
       </c>
       <c r="E11">
-        <v>18.72371281587566</v>
+        <v>6.172818344138065</v>
       </c>
       <c r="F11">
-        <v>81.22294353469727</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>51.33895969266051</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.588512718018287</v>
       </c>
       <c r="K11">
-        <v>23.63407921865125</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.1122641673965</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.47966569295665</v>
+      </c>
+      <c r="N11">
+        <v>13.29723942243472</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.86146293126388</v>
+        <v>33.81053474164489</v>
       </c>
       <c r="C12">
-        <v>15.87636099507804</v>
+        <v>24.84184613538811</v>
       </c>
       <c r="D12">
-        <v>12.2458750704995</v>
+        <v>3.002815243866831</v>
       </c>
       <c r="E12">
-        <v>19.01767080873559</v>
+        <v>6.180812443153425</v>
       </c>
       <c r="F12">
-        <v>82.36670726088039</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>51.91076477715519</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.585178735986339</v>
       </c>
       <c r="K12">
-        <v>24.00142802060413</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.42516740054396</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.7910221197019</v>
+      </c>
+      <c r="N12">
+        <v>13.24575830551425</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.76514656285969</v>
+        <v>33.70692577531722</v>
       </c>
       <c r="C13">
-        <v>15.82356837320205</v>
+        <v>24.76485197227347</v>
       </c>
       <c r="D13">
-        <v>12.21414915165589</v>
+        <v>2.998165397933098</v>
       </c>
       <c r="E13">
-        <v>18.95440889696317</v>
+        <v>6.179068566770556</v>
       </c>
       <c r="F13">
-        <v>82.12047401223384</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>51.78746756336696</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.585874446424969</v>
       </c>
       <c r="K13">
-        <v>23.92237224865413</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.35782194908366</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.72412990347383</v>
+      </c>
+      <c r="N13">
+        <v>13.25679059920691</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.45073689946144</v>
+        <v>33.36813796967667</v>
       </c>
       <c r="C14">
-        <v>15.65137400360579</v>
+        <v>24.51311966618464</v>
       </c>
       <c r="D14">
-        <v>12.11076277090738</v>
+        <v>2.983072907194389</v>
       </c>
       <c r="E14">
-        <v>18.7479194059124</v>
+        <v>6.173466065396243</v>
       </c>
       <c r="F14">
-        <v>81.31708917528405</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>51.38593632587909</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.588228426898258</v>
       </c>
       <c r="K14">
-        <v>23.66432950848554</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.13802800629751</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.50535562948023</v>
+      </c>
+      <c r="N14">
+        <v>13.29297944220345</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.25789831879376</v>
+        <v>33.15992126076115</v>
       </c>
       <c r="C15">
-        <v>15.54586520807112</v>
+        <v>24.3584277850275</v>
       </c>
       <c r="D15">
-        <v>12.04748924477459</v>
+        <v>2.97388184257008</v>
       </c>
       <c r="E15">
-        <v>18.62128623128648</v>
+        <v>6.170098833441981</v>
       </c>
       <c r="F15">
-        <v>80.82466394051482</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>51.14041177697293</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.589735011866772</v>
       </c>
       <c r="K15">
-        <v>23.50607922464205</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.00325387471639</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.37086330509193</v>
+      </c>
+      <c r="N15">
+        <v>13.31530483193804</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.14806727295484</v>
+        <v>31.95558041489191</v>
       </c>
       <c r="C16">
-        <v>14.94013444214904</v>
+        <v>23.46396928329348</v>
       </c>
       <c r="D16">
-        <v>11.68545237384607</v>
+        <v>2.921970965829361</v>
       </c>
       <c r="E16">
-        <v>17.89267934325941</v>
+        <v>6.151767163343969</v>
       </c>
       <c r="F16">
-        <v>77.9958675079202</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>49.73949621221337</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.59933251082063</v>
       </c>
       <c r="K16">
-        <v>22.59553464862364</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.22806598770674</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.59240001895036</v>
+      </c>
+      <c r="N16">
+        <v>13.44556616624921</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.46211473263984</v>
+        <v>31.20639681440054</v>
       </c>
       <c r="C17">
-        <v>14.56698336578159</v>
+        <v>22.90777794746048</v>
       </c>
       <c r="D17">
-        <v>11.46359346735926</v>
+        <v>2.890740768168378</v>
       </c>
       <c r="E17">
-        <v>17.44250422600493</v>
+        <v>6.141357790938866</v>
       </c>
       <c r="F17">
-        <v>76.25248831470698</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>48.88510607901132</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.606051577067387</v>
       </c>
       <c r="K17">
-        <v>22.03292258321213</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.74932141388809</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.10763987668026</v>
+      </c>
+      <c r="N17">
+        <v>13.52744184793539</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.0653789115444</v>
+        <v>30.77152210488399</v>
       </c>
       <c r="C18">
-        <v>14.35157677116632</v>
+        <v>22.58499688778721</v>
       </c>
       <c r="D18">
-        <v>11.33598162009163</v>
+        <v>2.872981057408758</v>
       </c>
       <c r="E18">
-        <v>17.18218429522431</v>
+        <v>6.135668913328309</v>
       </c>
       <c r="F18">
-        <v>75.2461420712703</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>48.39539314256589</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.610210894503913</v>
       </c>
       <c r="K18">
-        <v>21.70757311827836</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.47255054870839</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.82606475218639</v>
+      </c>
+      <c r="N18">
+        <v>13.57521694614404</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.93064631394304</v>
+        <v>30.62358621771813</v>
       </c>
       <c r="C19">
-        <v>14.2784915579539</v>
+        <v>22.47520354509052</v>
       </c>
       <c r="D19">
-        <v>11.29276580537361</v>
+        <v>2.867000744727849</v>
       </c>
       <c r="E19">
-        <v>17.09378657692257</v>
+        <v>6.133793172955213</v>
       </c>
       <c r="F19">
-        <v>74.90473566539622</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>48.22986738763115</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.611668806216724</v>
       </c>
       <c r="K19">
-        <v>21.59709096635272</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.3785778109662</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.73024550151791</v>
+      </c>
+      <c r="N19">
+        <v>13.59150651828377</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.53535587962839</v>
+        <v>31.2865555866795</v>
       </c>
       <c r="C20">
-        <v>14.60678222426255</v>
+        <v>22.96728018216094</v>
       </c>
       <c r="D20">
-        <v>11.48720926657142</v>
+        <v>2.89404376164158</v>
       </c>
       <c r="E20">
-        <v>17.49056551896891</v>
+        <v>6.142434814034744</v>
       </c>
       <c r="F20">
-        <v>76.43843287877088</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>48.97587768336832</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.605305587102995</v>
       </c>
       <c r="K20">
-        <v>22.0929889190047</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.80042544858145</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.15952608723898</v>
+      </c>
+      <c r="N20">
+        <v>13.51865457999237</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54313731211668</v>
+        <v>33.46779288079061</v>
       </c>
       <c r="C21">
-        <v>15.70195747732031</v>
+        <v>24.58716260403148</v>
       </c>
       <c r="D21">
-        <v>12.1411180124239</v>
+        <v>2.987494632012845</v>
       </c>
       <c r="E21">
-        <v>18.80860065736018</v>
+        <v>6.175098164065487</v>
       </c>
       <c r="F21">
-        <v>81.55312656620426</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>51.50378612553077</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.587523452665877</v>
       </c>
       <c r="K21">
-        <v>23.74016100055807</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.20261520212737</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.56971568170547</v>
+      </c>
+      <c r="N21">
+        <v>13.28231656035396</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.84310585876942</v>
+        <v>34.86161738557931</v>
       </c>
       <c r="C22">
-        <v>16.41558090492068</v>
+        <v>25.62317542247546</v>
       </c>
       <c r="D22">
-        <v>12.57062453292449</v>
+        <v>3.050901617048843</v>
       </c>
       <c r="E22">
-        <v>19.66259169035314</v>
+        <v>6.19930563108448</v>
       </c>
       <c r="F22">
-        <v>84.87930022640778</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>53.1745381512217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.578767934127147</v>
       </c>
       <c r="K22">
-        <v>24.80734968127729</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.11192402970542</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.46926956445304</v>
+      </c>
+      <c r="N22">
+        <v>13.13484714848774</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.15000341911754</v>
+        <v>34.12041960449434</v>
       </c>
       <c r="C23">
-        <v>16.03463571416299</v>
+        <v>25.07215378066119</v>
       </c>
       <c r="D23">
-        <v>12.34106830526083</v>
+        <v>3.016818638590115</v>
       </c>
       <c r="E23">
-        <v>19.20720498821568</v>
+        <v>6.186113194060752</v>
       </c>
       <c r="F23">
-        <v>83.10469457415149</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>52.28091786166969</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.583165896861271</v>
       </c>
       <c r="K23">
-        <v>24.23827989122494</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.62695727116578</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.99105244883603</v>
+      </c>
+      <c r="N23">
+        <v>13.21286396686792</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.5022510216108</v>
+        <v>31.25032879719959</v>
       </c>
       <c r="C24">
-        <v>14.5887919412076</v>
+        <v>22.94038865645513</v>
       </c>
       <c r="D24">
-        <v>11.47653277917773</v>
+        <v>2.892549876477073</v>
       </c>
       <c r="E24">
-        <v>17.46884175698048</v>
+        <v>6.14194697326371</v>
       </c>
       <c r="F24">
-        <v>76.35438012447855</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>48.93483524059224</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.605641928381479</v>
       </c>
       <c r="K24">
-        <v>22.06583889893689</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.77732614887103</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.13607732767523</v>
+      </c>
+      <c r="N24">
+        <v>13.52262512140382</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55986536179799</v>
+        <v>28.00159497655638</v>
       </c>
       <c r="C25">
-        <v>12.99778151846216</v>
+        <v>20.52991835739624</v>
       </c>
       <c r="D25">
-        <v>10.5432637717519</v>
+        <v>2.766069863210336</v>
       </c>
       <c r="E25">
-        <v>15.53886020596775</v>
+        <v>6.105625891445868</v>
       </c>
       <c r="F25">
-        <v>68.93127611475676</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>45.390583850823</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.641051536023753</v>
       </c>
       <c r="K25">
-        <v>19.65346558293279</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.72645480886551</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>18.37801143351788</v>
+      </c>
+      <c r="N25">
+        <v>13.88255129539345</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -421,25 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46308309909242</v>
+        <v>26.11614660427144</v>
       </c>
       <c r="C2">
-        <v>18.6471048113855</v>
+        <v>19.41152626607812</v>
       </c>
       <c r="D2">
-        <v>2.677231734490704</v>
+        <v>4.081514162198888</v>
       </c>
       <c r="E2">
-        <v>6.087705676423685</v>
+        <v>9.263226182751657</v>
       </c>
       <c r="F2">
-        <v>42.82785216214469</v>
+        <v>39.07340964056873</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.675665773846901</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.15906586938824</v>
+        <v>20.3299322226635</v>
       </c>
       <c r="N2">
-        <v>14.16629976503014</v>
+        <v>12.79841478287555</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.7885778509652</v>
+        <v>24.20586217997972</v>
       </c>
       <c r="C3">
-        <v>17.2989007026586</v>
+        <v>17.99903521126042</v>
       </c>
       <c r="D3">
-        <v>2.618813986782722</v>
+        <v>4.106725240448831</v>
       </c>
       <c r="E3">
-        <v>6.080676656572345</v>
+        <v>8.757731702546881</v>
       </c>
       <c r="F3">
-        <v>41.11981752918215</v>
+        <v>36.84099457653428</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.704011276824646</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.31957566477673</v>
+        <v>18.86425681150139</v>
       </c>
       <c r="N3">
-        <v>14.36906239386586</v>
+        <v>12.96750301723621</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.73096822329569</v>
+        <v>22.97814064316639</v>
       </c>
       <c r="C4">
-        <v>16.4727574482726</v>
+        <v>17.09160025717678</v>
       </c>
       <c r="D4">
-        <v>2.583581772772201</v>
+        <v>4.126693220435</v>
       </c>
       <c r="E4">
-        <v>6.078770110518189</v>
+        <v>8.44555545351712</v>
       </c>
       <c r="F4">
-        <v>40.08605395256332</v>
+        <v>35.45544628275766</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.723699829789279</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.79843312807794</v>
+        <v>17.92322727605632</v>
       </c>
       <c r="N4">
-        <v>14.49841923639646</v>
+        <v>13.07720895715003</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.29124028722471</v>
+        <v>22.46373521726533</v>
       </c>
       <c r="C5">
-        <v>16.13009336013433</v>
+        <v>16.71144701688567</v>
       </c>
       <c r="D5">
-        <v>2.56935208806121</v>
+        <v>4.135852471860802</v>
       </c>
       <c r="E5">
-        <v>6.078583381566912</v>
+        <v>8.317942687329102</v>
       </c>
       <c r="F5">
-        <v>39.66876054433121</v>
+        <v>34.88737666787032</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.73228045326846</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.58482834917818</v>
+        <v>17.52914033883413</v>
       </c>
       <c r="N5">
-        <v>14.55231840962452</v>
+        <v>13.12330974828033</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21770109620785</v>
+        <v>22.37745832314998</v>
       </c>
       <c r="C6">
-        <v>16.07272320195388</v>
+        <v>16.64768936817601</v>
       </c>
       <c r="D6">
-        <v>2.566996091390589</v>
+        <v>4.137432200198797</v>
       </c>
       <c r="E6">
-        <v>6.078587582806886</v>
+        <v>8.296730903736178</v>
       </c>
       <c r="F6">
-        <v>39.5997165221322</v>
+        <v>34.7928523092534</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.733738454040847</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.54929157094097</v>
+        <v>17.46305411813353</v>
       </c>
       <c r="N6">
-        <v>14.56133896578678</v>
+        <v>13.13104674155645</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.72507307232528</v>
+        <v>22.97126067690562</v>
       </c>
       <c r="C7">
-        <v>16.46816776065656</v>
+        <v>17.08651568763236</v>
       </c>
       <c r="D7">
-        <v>2.583389389431495</v>
+        <v>4.126812738970529</v>
       </c>
       <c r="E7">
-        <v>6.078765222477801</v>
+        <v>8.443835938137969</v>
       </c>
       <c r="F7">
-        <v>40.08040977921244</v>
+        <v>35.44779856408827</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.723813315674213</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.79555708302496</v>
+        <v>17.91795578660335</v>
       </c>
       <c r="N7">
-        <v>14.49914138414887</v>
+        <v>13.07782514445383</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.88689537365979</v>
+        <v>25.46865140586039</v>
       </c>
       <c r="C8">
-        <v>18.18979453534931</v>
+        <v>18.93266593170478</v>
       </c>
       <c r="D8">
-        <v>2.656936630662233</v>
+        <v>4.089207565116839</v>
       </c>
       <c r="E8">
-        <v>6.084772293135144</v>
+        <v>9.08932641384998</v>
       </c>
       <c r="F8">
-        <v>42.23591665428966</v>
+        <v>38.30687114439188</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.684954464282453</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.87089276359943</v>
+        <v>19.83292369622568</v>
       </c>
       <c r="N8">
-        <v>14.23517921770539</v>
+        <v>12.85543950467534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11781626344328</v>
+        <v>29.94754558484156</v>
       </c>
       <c r="C9">
-        <v>21.35792522223817</v>
+        <v>22.24777824966583</v>
       </c>
       <c r="D9">
-        <v>2.807876539302476</v>
+        <v>4.056548172292276</v>
       </c>
       <c r="E9">
-        <v>6.116434207838087</v>
+        <v>10.34055733258794</v>
       </c>
       <c r="F9">
-        <v>46.57685800073774</v>
+        <v>43.79237471068515</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.62773219376275</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.92865046436216</v>
+        <v>23.27598419287412</v>
       </c>
       <c r="N9">
-        <v>13.75820447876676</v>
+        <v>12.47066875172866</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04054137467428</v>
+        <v>33.00925451093282</v>
       </c>
       <c r="C10">
-        <v>23.52705419003244</v>
+        <v>24.51873375443925</v>
       </c>
       <c r="D10">
-        <v>2.925563692780615</v>
+        <v>4.066372835934915</v>
       </c>
       <c r="E10">
-        <v>6.152996012519713</v>
+        <v>11.37361851808524</v>
       </c>
       <c r="F10">
-        <v>49.83722899667015</v>
+        <v>47.80014227587247</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.598606515640093</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.64734904293049</v>
+        <v>25.63746146880493</v>
       </c>
       <c r="N10">
-        <v>13.43631880837513</v>
+        <v>12.22723134149844</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.32836240234883</v>
+        <v>34.35940642686013</v>
       </c>
       <c r="C11">
-        <v>24.48356770789647</v>
+        <v>25.52179418688221</v>
       </c>
       <c r="D11">
-        <v>2.981312172116839</v>
+        <v>4.080518749809581</v>
       </c>
       <c r="E11">
-        <v>6.172818344138065</v>
+        <v>11.86666045459626</v>
       </c>
       <c r="F11">
-        <v>51.33895969266051</v>
+        <v>49.71654230200467</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.588512718018287</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.47966569295665</v>
+        <v>26.68116923220596</v>
       </c>
       <c r="N11">
-        <v>13.29723942243472</v>
+        <v>12.12733489812993</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.81053474164489</v>
+        <v>34.86524402991413</v>
       </c>
       <c r="C12">
-        <v>24.84184613538811</v>
+        <v>25.89788164240538</v>
       </c>
       <c r="D12">
-        <v>3.002815243866831</v>
+        <v>4.08749719941599</v>
       </c>
       <c r="E12">
-        <v>6.180812443153425</v>
+        <v>12.05215263981669</v>
       </c>
       <c r="F12">
-        <v>51.91076477715519</v>
+        <v>50.43992033812881</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.585178735986339</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.7910221197019</v>
+        <v>27.07259482112233</v>
       </c>
       <c r="N12">
-        <v>13.24575830551425</v>
+        <v>12.09131460469053</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.70692577531722</v>
+        <v>34.75653223578481</v>
       </c>
       <c r="C13">
-        <v>24.76485197227347</v>
+        <v>25.81704118602834</v>
       </c>
       <c r="D13">
-        <v>2.998165397933098</v>
+        <v>4.085918109937393</v>
       </c>
       <c r="E13">
-        <v>6.179068566770556</v>
+        <v>12.01225154317313</v>
       </c>
       <c r="F13">
-        <v>51.78746756336696</v>
+        <v>50.28421304044677</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.585874446424969</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.72412990347383</v>
+        <v>26.98845303520725</v>
       </c>
       <c r="N13">
-        <v>13.25679059920691</v>
+        <v>12.09898726371218</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36813796967667</v>
+        <v>34.40112651866896</v>
       </c>
       <c r="C14">
-        <v>24.51311966618464</v>
+        <v>25.552806689711</v>
       </c>
       <c r="D14">
-        <v>2.983072907194389</v>
+        <v>4.081058930520061</v>
       </c>
       <c r="E14">
-        <v>6.173466065396243</v>
+        <v>11.88194318167549</v>
       </c>
       <c r="F14">
-        <v>51.38593632587909</v>
+        <v>49.77609512817515</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.588228426898258</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.50535562948023</v>
+        <v>26.71344455621655</v>
       </c>
       <c r="N14">
-        <v>13.29297944220345</v>
+        <v>12.12433363236961</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15992126076115</v>
+        <v>34.18274504074282</v>
       </c>
       <c r="C15">
-        <v>24.3584277850275</v>
+        <v>25.39048554580284</v>
       </c>
       <c r="D15">
-        <v>2.97388184257008</v>
+        <v>4.07830114232357</v>
       </c>
       <c r="E15">
-        <v>6.170098833441981</v>
+        <v>11.80197858137273</v>
       </c>
       <c r="F15">
-        <v>51.14041177697293</v>
+        <v>49.46458891926861</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.589735011866772</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.37086330509193</v>
+        <v>26.54451771313331</v>
       </c>
       <c r="N15">
-        <v>13.31530483193804</v>
+        <v>12.14010278905963</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.95558041489191</v>
+        <v>32.92021778968228</v>
       </c>
       <c r="C16">
-        <v>23.46396928329348</v>
+        <v>24.45262373557323</v>
       </c>
       <c r="D16">
-        <v>2.921970965829361</v>
+        <v>4.065662017329626</v>
       </c>
       <c r="E16">
-        <v>6.151767163343969</v>
+        <v>11.34120803965279</v>
       </c>
       <c r="F16">
-        <v>49.73949621221337</v>
+        <v>47.67451817695324</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.59933251082063</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.59240001895036</v>
+        <v>25.56868617961498</v>
       </c>
       <c r="N16">
-        <v>13.44556616624921</v>
+        <v>12.23399815156138</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.20639681440054</v>
+        <v>32.13523761980618</v>
       </c>
       <c r="C17">
-        <v>22.90777794746048</v>
+        <v>23.86996333249424</v>
       </c>
       <c r="D17">
-        <v>2.890740768168378</v>
+        <v>4.060540378448781</v>
       </c>
       <c r="E17">
-        <v>6.141357790938866</v>
+        <v>11.05600814338768</v>
       </c>
       <c r="F17">
-        <v>48.88510607901132</v>
+        <v>46.61024323409872</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.606051577067387</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.10763987668026</v>
+        <v>24.96261119333781</v>
       </c>
       <c r="N17">
-        <v>13.52744184793539</v>
+        <v>12.29453895220126</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.77152210488399</v>
+        <v>31.67967702374565</v>
       </c>
       <c r="C18">
-        <v>22.58499688778721</v>
+        <v>23.5319690715643</v>
       </c>
       <c r="D18">
-        <v>2.872981057408758</v>
+        <v>4.058489755657703</v>
       </c>
       <c r="E18">
-        <v>6.135668913328309</v>
+        <v>10.89093489239373</v>
       </c>
       <c r="F18">
-        <v>48.39539314256589</v>
+        <v>46.01678684083168</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.610210894503913</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.82606475218639</v>
+        <v>24.61109792056471</v>
       </c>
       <c r="N18">
-        <v>13.57521694614404</v>
+        <v>12.33036352031085</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.62358621771813</v>
+        <v>31.52471525591342</v>
       </c>
       <c r="C19">
-        <v>22.47520354509052</v>
+        <v>23.41702250835775</v>
       </c>
       <c r="D19">
-        <v>2.867000744727849</v>
+        <v>4.05794271627178</v>
       </c>
       <c r="E19">
-        <v>6.133793172955213</v>
+        <v>10.83485717703614</v>
       </c>
       <c r="F19">
-        <v>48.22986738763115</v>
+        <v>45.81569739172961</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.611668806216724</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.73024550151791</v>
+        <v>24.49156457548575</v>
       </c>
       <c r="N19">
-        <v>13.59150651828377</v>
+        <v>12.34265861430185</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.2865555866795</v>
+        <v>32.21921570408549</v>
       </c>
       <c r="C20">
-        <v>22.96728018216094</v>
+        <v>23.93228108343772</v>
       </c>
       <c r="D20">
-        <v>2.89404376164158</v>
+        <v>4.060991371927644</v>
       </c>
       <c r="E20">
-        <v>6.142434814034744</v>
+        <v>11.08647293419492</v>
       </c>
       <c r="F20">
-        <v>48.97587768336832</v>
+        <v>46.72000965661618</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.605305587102995</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.15952608723898</v>
+        <v>25.02742665327866</v>
       </c>
       <c r="N20">
-        <v>13.51865457999237</v>
+        <v>12.28798882189971</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.46779288079061</v>
+        <v>34.50565917663045</v>
       </c>
       <c r="C21">
-        <v>24.58716260403148</v>
+        <v>25.63051553876756</v>
       </c>
       <c r="D21">
-        <v>2.987494632012845</v>
+        <v>4.08244017393876</v>
       </c>
       <c r="E21">
-        <v>6.175098164065487</v>
+        <v>11.92024785335612</v>
       </c>
       <c r="F21">
-        <v>51.50378612553077</v>
+        <v>49.92539570865345</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.587523452665877</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.56971568170547</v>
+        <v>26.79431925781701</v>
       </c>
       <c r="N21">
-        <v>13.28231656035396</v>
+        <v>12.11683746719323</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86161738557931</v>
+        <v>35.96871408799666</v>
       </c>
       <c r="C22">
-        <v>25.62317542247546</v>
+        <v>26.71889155445389</v>
       </c>
       <c r="D22">
-        <v>3.050901617048843</v>
+        <v>4.106043084291546</v>
       </c>
       <c r="E22">
-        <v>6.19930563108448</v>
+        <v>12.45830369466093</v>
       </c>
       <c r="F22">
-        <v>53.1745381512217</v>
+        <v>52.02780833160885</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.578767934127147</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.46926956445304</v>
+        <v>27.92726502008971</v>
       </c>
       <c r="N22">
-        <v>13.13484714848774</v>
+        <v>12.01567611517197</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.12041960449434</v>
+        <v>35.19045267729351</v>
       </c>
       <c r="C23">
-        <v>25.07215378066119</v>
+        <v>26.1397600148093</v>
       </c>
       <c r="D23">
-        <v>3.016818638590115</v>
+        <v>4.092483551486366</v>
       </c>
       <c r="E23">
-        <v>6.186113194060752</v>
+        <v>12.17163493165854</v>
       </c>
       <c r="F23">
-        <v>52.28091786166969</v>
+        <v>50.90650150539269</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.583165896861271</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.99105244883603</v>
+        <v>27.32436504987665</v>
       </c>
       <c r="N23">
-        <v>13.21286396686792</v>
+        <v>12.06859261499684</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.25032879719959</v>
+        <v>32.18126254752997</v>
       </c>
       <c r="C24">
-        <v>22.94038865645513</v>
+        <v>23.90411666051457</v>
       </c>
       <c r="D24">
-        <v>2.892549876477073</v>
+        <v>4.060784710556212</v>
       </c>
       <c r="E24">
-        <v>6.14194697326371</v>
+        <v>11.07270327762091</v>
       </c>
       <c r="F24">
-        <v>48.93483524059224</v>
+        <v>46.67038759122455</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.605641928381479</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.13607732767523</v>
+        <v>24.99813319734593</v>
       </c>
       <c r="N24">
-        <v>13.52262512140382</v>
+        <v>12.2909469805325</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.00159497655638</v>
+        <v>28.7781993323855</v>
       </c>
       <c r="C25">
-        <v>20.52991835739624</v>
+        <v>21.38158482988351</v>
       </c>
       <c r="D25">
-        <v>2.766069863210336</v>
+        <v>4.060151872079329</v>
       </c>
       <c r="E25">
-        <v>6.105625891445868</v>
+        <v>10.00349153080445</v>
       </c>
       <c r="F25">
-        <v>45.390583850823</v>
+        <v>42.32111136403924</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.641051536023753</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.37801143351788</v>
+        <v>22.37585476780833</v>
       </c>
       <c r="N25">
-        <v>13.88255129539345</v>
+        <v>12.56853751039216</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.11614660427144</v>
+        <v>17.29619540223933</v>
       </c>
       <c r="C2">
-        <v>19.41152626607812</v>
+        <v>10.86081673650695</v>
       </c>
       <c r="D2">
-        <v>4.081514162198888</v>
+        <v>5.839207731680802</v>
       </c>
       <c r="E2">
-        <v>9.263226182751657</v>
+        <v>9.411092624575874</v>
       </c>
       <c r="F2">
-        <v>39.07340964056873</v>
+        <v>34.47678547254818</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.3299322226635</v>
+        <v>16.72178415589122</v>
       </c>
       <c r="N2">
-        <v>12.79841478287555</v>
+        <v>18.6560943872973</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20586217997972</v>
+        <v>16.6677017318</v>
       </c>
       <c r="C3">
-        <v>17.99903521126042</v>
+        <v>10.25130124603327</v>
       </c>
       <c r="D3">
-        <v>4.106725240448831</v>
+        <v>5.855014677497945</v>
       </c>
       <c r="E3">
-        <v>8.757731702546881</v>
+        <v>9.327985292081809</v>
       </c>
       <c r="F3">
-        <v>36.84099457653428</v>
+        <v>33.95775021068333</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.86425681150139</v>
+        <v>16.43211586361197</v>
       </c>
       <c r="N3">
-        <v>12.96750301723621</v>
+        <v>18.70455971377591</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.97814064316639</v>
+        <v>16.27552129864773</v>
       </c>
       <c r="C4">
-        <v>17.09160025717678</v>
+        <v>9.861107621943241</v>
       </c>
       <c r="D4">
-        <v>4.126693220435</v>
+        <v>5.865738270268666</v>
       </c>
       <c r="E4">
-        <v>8.44555545351712</v>
+        <v>9.279504279467176</v>
       </c>
       <c r="F4">
-        <v>35.45544628275766</v>
+        <v>33.6467760026635</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.92322727605632</v>
+        <v>16.25729199141967</v>
       </c>
       <c r="N4">
-        <v>13.07720895715003</v>
+        <v>18.73625885600948</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46373521726533</v>
+        <v>16.1144089506207</v>
       </c>
       <c r="C5">
-        <v>16.71144701688567</v>
+        <v>9.698271865777079</v>
       </c>
       <c r="D5">
-        <v>4.135852471860802</v>
+        <v>5.870362626257373</v>
       </c>
       <c r="E5">
-        <v>8.317942687329102</v>
+        <v>9.260404042046821</v>
       </c>
       <c r="F5">
-        <v>34.88737666787032</v>
+        <v>33.52214516453453</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.52914033883413</v>
+        <v>16.18691059239602</v>
       </c>
       <c r="N5">
-        <v>13.12330974828033</v>
+        <v>18.7496635547037</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37745832314998</v>
+        <v>16.08758689441258</v>
       </c>
       <c r="C6">
-        <v>16.64768936817601</v>
+        <v>9.671007875203907</v>
       </c>
       <c r="D6">
-        <v>4.137432200198797</v>
+        <v>5.871145816017926</v>
       </c>
       <c r="E6">
-        <v>8.296730903736178</v>
+        <v>9.257272521522617</v>
       </c>
       <c r="F6">
-        <v>34.7928523092534</v>
+        <v>33.50158115043912</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.46305411813353</v>
+        <v>16.17527863821542</v>
       </c>
       <c r="N6">
-        <v>13.13104674155645</v>
+        <v>18.75191877925722</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.97126067690562</v>
+        <v>16.27335333375519</v>
       </c>
       <c r="C7">
-        <v>17.08651568763236</v>
+        <v>9.858926798303209</v>
       </c>
       <c r="D7">
-        <v>4.126812738970529</v>
+        <v>5.865799607966428</v>
       </c>
       <c r="E7">
-        <v>8.443835938137969</v>
+        <v>9.279244010580337</v>
       </c>
       <c r="F7">
-        <v>35.44779856408827</v>
+        <v>33.64508651110076</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.91795578660335</v>
+        <v>16.25633918962999</v>
       </c>
       <c r="N7">
-        <v>13.07782514445383</v>
+        <v>18.73643766586052</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.46865140586039</v>
+        <v>17.08095773709594</v>
       </c>
       <c r="C8">
-        <v>18.93266593170478</v>
+        <v>10.65406455213084</v>
       </c>
       <c r="D8">
-        <v>4.089207565116839</v>
+        <v>5.844445704137271</v>
       </c>
       <c r="E8">
-        <v>9.08932641384998</v>
+        <v>9.381918366211991</v>
       </c>
       <c r="F8">
-        <v>38.30687114439188</v>
+        <v>34.29631427241144</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.83292369622568</v>
+        <v>16.62133595036878</v>
       </c>
       <c r="N8">
-        <v>12.85543950467534</v>
+        <v>18.67240166067977</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.94754558484156</v>
+        <v>18.60358081520028</v>
       </c>
       <c r="C9">
-        <v>22.24777824966583</v>
+        <v>12.08040843514816</v>
       </c>
       <c r="D9">
-        <v>4.056548172292276</v>
+        <v>5.810720801783704</v>
       </c>
       <c r="E9">
-        <v>10.34055733258794</v>
+        <v>9.602719317891172</v>
       </c>
       <c r="F9">
-        <v>43.79237471068515</v>
+        <v>35.62764776307567</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.27598419287412</v>
+        <v>17.35683165452803</v>
       </c>
       <c r="N9">
-        <v>12.47066875172866</v>
+        <v>18.56227980556225</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.00925451093282</v>
+        <v>19.67171448310222</v>
       </c>
       <c r="C10">
-        <v>24.51873375443925</v>
+        <v>13.04064062650107</v>
       </c>
       <c r="D10">
-        <v>4.066372835934915</v>
+        <v>5.791011652195832</v>
       </c>
       <c r="E10">
-        <v>11.37361851808524</v>
+        <v>9.775709390113844</v>
       </c>
       <c r="F10">
-        <v>47.80014227587247</v>
+        <v>36.62942440421095</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.63746146880493</v>
+        <v>17.90346753237175</v>
       </c>
       <c r="N10">
-        <v>12.22723134149844</v>
+        <v>18.49086276867231</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.35940642686013</v>
+        <v>20.14433384215484</v>
       </c>
       <c r="C11">
-        <v>25.52179418688221</v>
+        <v>13.45745444288346</v>
       </c>
       <c r="D11">
-        <v>4.080518749809581</v>
+        <v>5.783167833827736</v>
       </c>
       <c r="E11">
-        <v>11.86666045459626</v>
+        <v>9.85649159793625</v>
       </c>
       <c r="F11">
-        <v>49.71654230200467</v>
+        <v>37.08828772162438</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.68116923220596</v>
+        <v>18.15231892267457</v>
       </c>
       <c r="N11">
-        <v>12.12733489812993</v>
+        <v>18.46044964086826</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.86524402991413</v>
+        <v>20.32122904065497</v>
       </c>
       <c r="C12">
-        <v>25.89788164240538</v>
+        <v>13.61235513597234</v>
       </c>
       <c r="D12">
-        <v>4.08749719941599</v>
+        <v>5.780360740087978</v>
       </c>
       <c r="E12">
-        <v>12.05215263981669</v>
+        <v>9.887359579655083</v>
       </c>
       <c r="F12">
-        <v>50.43992033812881</v>
+        <v>37.26233564311804</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>27.07259482112233</v>
+        <v>18.2464837215477</v>
       </c>
       <c r="N12">
-        <v>12.09131460469053</v>
+        <v>18.44923278991249</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.75653223578481</v>
+        <v>20.28322622476476</v>
       </c>
       <c r="C13">
-        <v>25.81704118602834</v>
+        <v>13.57912599240407</v>
       </c>
       <c r="D13">
-        <v>4.085918109937393</v>
+        <v>5.780958010379435</v>
       </c>
       <c r="E13">
-        <v>12.01225154317313</v>
+        <v>9.880699632615233</v>
       </c>
       <c r="F13">
-        <v>50.28421304044677</v>
+        <v>37.22484118416079</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.98845303520725</v>
+        <v>18.22620824482179</v>
       </c>
       <c r="N13">
-        <v>12.09898726371218</v>
+        <v>18.45163517374428</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.40112651866896</v>
+        <v>20.15892958924004</v>
       </c>
       <c r="C14">
-        <v>25.552806689711</v>
+        <v>13.47025739628444</v>
       </c>
       <c r="D14">
-        <v>4.081058930520061</v>
+        <v>5.782933611309648</v>
       </c>
       <c r="E14">
-        <v>11.88194318167549</v>
+        <v>9.85902569571436</v>
       </c>
       <c r="F14">
-        <v>49.77609512817515</v>
+        <v>37.10260195040468</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.71344455621655</v>
+        <v>18.16006785458023</v>
       </c>
       <c r="N14">
-        <v>12.12433363236961</v>
+        <v>18.45952080329776</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.18274504074282</v>
+        <v>20.08251945131364</v>
       </c>
       <c r="C15">
-        <v>25.39048554580284</v>
+        <v>13.40318807055225</v>
       </c>
       <c r="D15">
-        <v>4.07830114232357</v>
+        <v>5.784165031281183</v>
       </c>
       <c r="E15">
-        <v>11.80197858137273</v>
+        <v>9.845785239874767</v>
       </c>
       <c r="F15">
-        <v>49.46458891926861</v>
+        <v>37.02775930226785</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.54451771313331</v>
+        <v>18.11954307031186</v>
       </c>
       <c r="N15">
-        <v>12.14010278905963</v>
+        <v>18.46439008800886</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.92021778968228</v>
+        <v>19.64054581475941</v>
       </c>
       <c r="C16">
-        <v>24.45262373557323</v>
+        <v>13.01299282073061</v>
       </c>
       <c r="D16">
-        <v>4.065662017329626</v>
+        <v>5.79154699909013</v>
       </c>
       <c r="E16">
-        <v>11.34120803965279</v>
+        <v>9.770470168145781</v>
       </c>
       <c r="F16">
-        <v>47.67451817695324</v>
+        <v>36.59948566380621</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.56868617961498</v>
+        <v>17.8871998958947</v>
       </c>
       <c r="N16">
-        <v>12.23399815156138</v>
+        <v>18.49289222311604</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.13523761980618</v>
+        <v>19.36588329044428</v>
       </c>
       <c r="C17">
-        <v>23.86996333249424</v>
+        <v>12.76844976273585</v>
       </c>
       <c r="D17">
-        <v>4.060540378448781</v>
+        <v>5.796364274225977</v>
       </c>
       <c r="E17">
-        <v>11.05600814338768</v>
+        <v>9.724785616391507</v>
       </c>
       <c r="F17">
-        <v>46.61024323409872</v>
+        <v>36.33744074762071</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.96261119333781</v>
+        <v>17.74464234408298</v>
       </c>
       <c r="N17">
-        <v>12.29453895220126</v>
+        <v>18.510909884177</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67967702374565</v>
+        <v>19.20666322437895</v>
       </c>
       <c r="C18">
-        <v>23.5319690715643</v>
+        <v>12.62591522515742</v>
       </c>
       <c r="D18">
-        <v>4.058489755657703</v>
+        <v>5.799240537232922</v>
       </c>
       <c r="E18">
-        <v>10.89093489239373</v>
+        <v>9.698707019681956</v>
       </c>
       <c r="F18">
-        <v>46.01678684083168</v>
+        <v>36.1870257163837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.61109792056471</v>
+        <v>17.66266987233013</v>
       </c>
       <c r="N18">
-        <v>12.33036352031085</v>
+        <v>18.52146836234498</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52471525591342</v>
+        <v>19.152546223201</v>
       </c>
       <c r="C19">
-        <v>23.41702250835775</v>
+        <v>12.57733471984115</v>
       </c>
       <c r="D19">
-        <v>4.05794271627178</v>
+        <v>5.800232452911382</v>
       </c>
       <c r="E19">
-        <v>10.83485717703614</v>
+        <v>9.68991193764343</v>
       </c>
       <c r="F19">
-        <v>45.81569739172961</v>
+        <v>36.13615551252162</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.49156457548575</v>
+        <v>17.63492232240064</v>
       </c>
       <c r="N19">
-        <v>12.34265861430185</v>
+        <v>18.52507675937433</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.21921570408549</v>
+        <v>19.39525133752902</v>
       </c>
       <c r="C20">
-        <v>23.93228108343772</v>
+        <v>12.79467683423342</v>
       </c>
       <c r="D20">
-        <v>4.060991371927644</v>
+        <v>5.795840535497616</v>
       </c>
       <c r="E20">
-        <v>11.08647293419492</v>
+        <v>9.729628491173735</v>
       </c>
       <c r="F20">
-        <v>46.72000965661618</v>
+        <v>36.36530539749575</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.02742665327866</v>
+        <v>17.75981618209854</v>
       </c>
       <c r="N20">
-        <v>12.28798882189971</v>
+        <v>18.50897166007399</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.50565917663045</v>
+        <v>20.19549607187576</v>
       </c>
       <c r="C21">
-        <v>25.63051553876756</v>
+        <v>13.50231489355206</v>
       </c>
       <c r="D21">
-        <v>4.08244017393876</v>
+        <v>5.782348885664971</v>
       </c>
       <c r="E21">
-        <v>11.92024785335612</v>
+        <v>9.865384508578869</v>
       </c>
       <c r="F21">
-        <v>49.92539570865345</v>
+        <v>37.1385001133826</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.79431925781701</v>
+        <v>18.17949753376438</v>
       </c>
       <c r="N21">
-        <v>12.11683746719323</v>
+        <v>18.45719644957568</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.96871408799666</v>
+        <v>20.70634198437685</v>
       </c>
       <c r="C22">
-        <v>26.71889155445389</v>
+        <v>13.9476547921175</v>
       </c>
       <c r="D22">
-        <v>4.106043084291546</v>
+        <v>5.774483378245203</v>
       </c>
       <c r="E22">
-        <v>12.45830369466093</v>
+        <v>9.955715605511656</v>
       </c>
       <c r="F22">
-        <v>52.02780833160885</v>
+        <v>37.6454223416691</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.92726502008971</v>
+        <v>18.45333472478572</v>
       </c>
       <c r="N22">
-        <v>12.01567611517197</v>
+        <v>18.42510741093441</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19045267729351</v>
+        <v>20.43485610602161</v>
       </c>
       <c r="C23">
-        <v>26.1397600148093</v>
+        <v>13.71155403406794</v>
       </c>
       <c r="D23">
-        <v>4.092483551486366</v>
+        <v>5.778593617984659</v>
       </c>
       <c r="E23">
-        <v>12.17163493165854</v>
+        <v>9.907364824328354</v>
       </c>
       <c r="F23">
-        <v>50.90650150539269</v>
+        <v>37.37477644998115</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.32436504987665</v>
+        <v>18.30725452786946</v>
       </c>
       <c r="N23">
-        <v>12.06859261499684</v>
+        <v>18.44207335981083</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.18126254752997</v>
+        <v>19.38197812009781</v>
       </c>
       <c r="C24">
-        <v>23.90411666051457</v>
+        <v>12.78282562389483</v>
       </c>
       <c r="D24">
-        <v>4.060784710556212</v>
+        <v>5.796076985422765</v>
       </c>
       <c r="E24">
-        <v>11.07270327762091</v>
+        <v>9.727438446226767</v>
       </c>
       <c r="F24">
-        <v>46.67038759122455</v>
+        <v>36.35270703503137</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.99813319734593</v>
+        <v>17.7529561269282</v>
       </c>
       <c r="N24">
-        <v>12.2909469805325</v>
+        <v>18.50984730871384</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.7781993323855</v>
+        <v>18.19967843479009</v>
       </c>
       <c r="C25">
-        <v>21.38158482988351</v>
+        <v>11.70955322661465</v>
       </c>
       <c r="D25">
-        <v>4.060151872079329</v>
+        <v>5.818961487626365</v>
       </c>
       <c r="E25">
-        <v>10.00349153080445</v>
+        <v>9.541012466094244</v>
       </c>
       <c r="F25">
-        <v>42.32111136403924</v>
+        <v>35.26264829728986</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.37585476780833</v>
+        <v>17.15634805218522</v>
       </c>
       <c r="N25">
-        <v>12.56853751039216</v>
+        <v>18.59040941440993</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.29619540223933</v>
+        <v>26.11614660427147</v>
       </c>
       <c r="C2">
-        <v>10.86081673650695</v>
+        <v>19.41152626607807</v>
       </c>
       <c r="D2">
-        <v>5.839207731680802</v>
+        <v>4.081514162198943</v>
       </c>
       <c r="E2">
-        <v>9.411092624575874</v>
+        <v>9.263226182751676</v>
       </c>
       <c r="F2">
-        <v>34.47678547254818</v>
+        <v>39.07340964056868</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.72178415589122</v>
+        <v>20.32993222266348</v>
       </c>
       <c r="N2">
-        <v>18.6560943872973</v>
+        <v>12.79841478287555</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.6677017318</v>
+        <v>24.20586217997982</v>
       </c>
       <c r="C3">
-        <v>10.25130124603327</v>
+        <v>17.99903521126046</v>
       </c>
       <c r="D3">
-        <v>5.855014677497945</v>
+        <v>4.106725240448883</v>
       </c>
       <c r="E3">
-        <v>9.327985292081809</v>
+        <v>8.757731702546884</v>
       </c>
       <c r="F3">
-        <v>33.95775021068333</v>
+        <v>36.84099457653428</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.43211586361197</v>
+        <v>18.86425681150143</v>
       </c>
       <c r="N3">
-        <v>18.70455971377591</v>
+        <v>12.96750301723614</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27552129864773</v>
+        <v>22.97814064316635</v>
       </c>
       <c r="C4">
-        <v>9.861107621943241</v>
+        <v>17.09160025717684</v>
       </c>
       <c r="D4">
-        <v>5.865738270268666</v>
+        <v>4.126693220435039</v>
       </c>
       <c r="E4">
-        <v>9.279504279467176</v>
+        <v>8.44555545351712</v>
       </c>
       <c r="F4">
-        <v>33.6467760026635</v>
+        <v>35.45544628275765</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25729199141967</v>
+        <v>17.9232272760563</v>
       </c>
       <c r="N4">
-        <v>18.73625885600948</v>
+        <v>13.07720895715002</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.1144089506207</v>
+        <v>22.46373521726533</v>
       </c>
       <c r="C5">
-        <v>9.698271865777079</v>
+        <v>16.71144701688575</v>
       </c>
       <c r="D5">
-        <v>5.870362626257373</v>
+        <v>4.135852471860743</v>
       </c>
       <c r="E5">
-        <v>9.260404042046821</v>
+        <v>8.31794268732914</v>
       </c>
       <c r="F5">
-        <v>33.52214516453453</v>
+        <v>34.88737666787026</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.18691059239602</v>
+        <v>17.52914033883411</v>
       </c>
       <c r="N5">
-        <v>18.7496635547037</v>
+        <v>13.12330974828032</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.08758689441258</v>
+        <v>22.37745832314997</v>
       </c>
       <c r="C6">
-        <v>9.671007875203907</v>
+        <v>16.64768936817599</v>
       </c>
       <c r="D6">
-        <v>5.871145816017926</v>
+        <v>4.137432200198619</v>
       </c>
       <c r="E6">
-        <v>9.257272521522617</v>
+        <v>8.296730903736195</v>
       </c>
       <c r="F6">
-        <v>33.50158115043912</v>
+        <v>34.79285230925331</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.17527863821542</v>
+        <v>17.46305411813355</v>
       </c>
       <c r="N6">
-        <v>18.75191877925722</v>
+        <v>13.13104674155638</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.27335333375519</v>
+        <v>22.97126067690558</v>
       </c>
       <c r="C7">
-        <v>9.858926798303209</v>
+        <v>17.08651568763241</v>
       </c>
       <c r="D7">
-        <v>5.865799607966428</v>
+        <v>4.126812738970636</v>
       </c>
       <c r="E7">
-        <v>9.279244010580337</v>
+        <v>8.443835938137937</v>
       </c>
       <c r="F7">
-        <v>33.64508651110076</v>
+        <v>35.44779856408835</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.25633918962999</v>
+        <v>17.91795578660335</v>
       </c>
       <c r="N7">
-        <v>18.73643766586052</v>
+        <v>13.07782514445386</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.08095773709594</v>
+        <v>25.46865140586038</v>
       </c>
       <c r="C8">
-        <v>10.65406455213084</v>
+        <v>18.93266593170477</v>
       </c>
       <c r="D8">
-        <v>5.844445704137271</v>
+        <v>4.08920756511677</v>
       </c>
       <c r="E8">
-        <v>9.381918366211991</v>
+        <v>9.089326413849994</v>
       </c>
       <c r="F8">
-        <v>34.29631427241144</v>
+        <v>38.30687114439189</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.62133595036878</v>
+        <v>19.83292369622567</v>
       </c>
       <c r="N8">
-        <v>18.67240166067977</v>
+        <v>12.85543950467534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.60358081520028</v>
+        <v>29.94754558484159</v>
       </c>
       <c r="C9">
-        <v>12.08040843514816</v>
+        <v>22.24777824966585</v>
       </c>
       <c r="D9">
-        <v>5.810720801783704</v>
+        <v>4.056548172292353</v>
       </c>
       <c r="E9">
-        <v>9.602719317891172</v>
+        <v>10.34055733258797</v>
       </c>
       <c r="F9">
-        <v>35.62764776307567</v>
+        <v>43.79237471068507</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.35683165452803</v>
+        <v>23.27598419287414</v>
       </c>
       <c r="N9">
-        <v>18.56227980556225</v>
+        <v>12.47066875172856</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.67171448310222</v>
+        <v>33.00925451093282</v>
       </c>
       <c r="C10">
-        <v>13.04064062650107</v>
+        <v>24.51873375443935</v>
       </c>
       <c r="D10">
-        <v>5.791011652195832</v>
+        <v>4.066372835934972</v>
       </c>
       <c r="E10">
-        <v>9.775709390113844</v>
+        <v>11.37361851808524</v>
       </c>
       <c r="F10">
-        <v>36.62942440421095</v>
+        <v>47.80014227587253</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.90346753237175</v>
+        <v>25.63746146880491</v>
       </c>
       <c r="N10">
-        <v>18.49086276867231</v>
+        <v>12.22723134149834</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.14433384215484</v>
+        <v>34.35940642686012</v>
       </c>
       <c r="C11">
-        <v>13.45745444288346</v>
+        <v>25.52179418688219</v>
       </c>
       <c r="D11">
-        <v>5.783167833827736</v>
+        <v>4.08051874980968</v>
       </c>
       <c r="E11">
-        <v>9.85649159793625</v>
+        <v>11.8666604545963</v>
       </c>
       <c r="F11">
-        <v>37.08828772162438</v>
+        <v>49.71654230200461</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.15231892267457</v>
+        <v>26.68116923220595</v>
       </c>
       <c r="N11">
-        <v>18.46044964086826</v>
+        <v>12.12733489812991</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.32122904065497</v>
+        <v>34.86524402991419</v>
       </c>
       <c r="C12">
-        <v>13.61235513597234</v>
+        <v>25.89788164240551</v>
       </c>
       <c r="D12">
-        <v>5.780360740087978</v>
+        <v>4.087497199416003</v>
       </c>
       <c r="E12">
-        <v>9.887359579655083</v>
+        <v>12.05215263981664</v>
       </c>
       <c r="F12">
-        <v>37.26233564311804</v>
+        <v>50.43992033812892</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.2464837215477</v>
+        <v>27.07259482112234</v>
       </c>
       <c r="N12">
-        <v>18.44923278991249</v>
+        <v>12.09131460469055</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28322622476476</v>
+        <v>34.75653223578499</v>
       </c>
       <c r="C13">
-        <v>13.57912599240407</v>
+        <v>25.81704118602835</v>
       </c>
       <c r="D13">
-        <v>5.780958010379435</v>
+        <v>4.085918109937424</v>
       </c>
       <c r="E13">
-        <v>9.880699632615233</v>
+        <v>12.01225154317309</v>
       </c>
       <c r="F13">
-        <v>37.22484118416079</v>
+        <v>50.28421304044688</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.22620824482179</v>
+        <v>26.98845303520732</v>
       </c>
       <c r="N13">
-        <v>18.45163517374428</v>
+        <v>12.09898726371214</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.15892958924004</v>
+        <v>34.40112651866893</v>
       </c>
       <c r="C14">
-        <v>13.47025739628444</v>
+        <v>25.55280668971112</v>
       </c>
       <c r="D14">
-        <v>5.782933611309648</v>
+        <v>4.081058930520078</v>
       </c>
       <c r="E14">
-        <v>9.85902569571436</v>
+        <v>11.8819431816755</v>
       </c>
       <c r="F14">
-        <v>37.10260195040468</v>
+        <v>49.77609512817518</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.16006785458023</v>
+        <v>26.71344455621655</v>
       </c>
       <c r="N14">
-        <v>18.45952080329776</v>
+        <v>12.12433363236958</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.08251945131364</v>
+        <v>34.18274504074279</v>
       </c>
       <c r="C15">
-        <v>13.40318807055225</v>
+        <v>25.39048554580269</v>
       </c>
       <c r="D15">
-        <v>5.784165031281183</v>
+        <v>4.078301142323475</v>
       </c>
       <c r="E15">
-        <v>9.845785239874767</v>
+        <v>11.8019785813728</v>
       </c>
       <c r="F15">
-        <v>37.02775930226785</v>
+        <v>49.46458891926846</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.11954307031186</v>
+        <v>26.54451771313328</v>
       </c>
       <c r="N15">
-        <v>18.46439008800886</v>
+        <v>12.14010278905962</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.64054581475941</v>
+        <v>32.92021778968232</v>
       </c>
       <c r="C16">
-        <v>13.01299282073061</v>
+        <v>24.45262373557318</v>
       </c>
       <c r="D16">
-        <v>5.79154699909013</v>
+        <v>4.065662017329699</v>
       </c>
       <c r="E16">
-        <v>9.770470168145781</v>
+        <v>11.34120803965273</v>
       </c>
       <c r="F16">
-        <v>36.59948566380621</v>
+        <v>47.67451817695331</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.8871998958947</v>
+        <v>25.56868617961496</v>
       </c>
       <c r="N16">
-        <v>18.49289222311604</v>
+        <v>12.23399815156132</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.36588329044428</v>
+        <v>32.13523761980633</v>
       </c>
       <c r="C17">
-        <v>12.76844976273585</v>
+        <v>23.86996333249433</v>
       </c>
       <c r="D17">
-        <v>5.796364274225977</v>
+        <v>4.060540378448824</v>
       </c>
       <c r="E17">
-        <v>9.724785616391507</v>
+        <v>11.05600814338753</v>
       </c>
       <c r="F17">
-        <v>36.33744074762071</v>
+        <v>46.61024323409887</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.74464234408298</v>
+        <v>24.96261119333784</v>
       </c>
       <c r="N17">
-        <v>18.510909884177</v>
+        <v>12.29453895220119</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.20666322437895</v>
+        <v>31.67967702374565</v>
       </c>
       <c r="C18">
-        <v>12.62591522515742</v>
+        <v>23.53196907156437</v>
       </c>
       <c r="D18">
-        <v>5.799240537232922</v>
+        <v>4.058489755657789</v>
       </c>
       <c r="E18">
-        <v>9.698707019681956</v>
+        <v>10.89093489239373</v>
       </c>
       <c r="F18">
-        <v>36.1870257163837</v>
+        <v>46.01678684083162</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.66266987233013</v>
+        <v>24.61109792056471</v>
       </c>
       <c r="N18">
-        <v>18.52146836234498</v>
+        <v>12.33036352031083</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.152546223201</v>
+        <v>31.52471525591325</v>
       </c>
       <c r="C19">
-        <v>12.57733471984115</v>
+        <v>23.41702250835759</v>
       </c>
       <c r="D19">
-        <v>5.800232452911382</v>
+        <v>4.05794271627185</v>
       </c>
       <c r="E19">
-        <v>9.68991193764343</v>
+        <v>10.83485717703624</v>
       </c>
       <c r="F19">
-        <v>36.13615551252162</v>
+        <v>45.81569739172949</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.63492232240064</v>
+        <v>24.4915645754857</v>
       </c>
       <c r="N19">
-        <v>18.52507675937433</v>
+        <v>12.3426586143019</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.39525133752902</v>
+        <v>32.2192157040857</v>
       </c>
       <c r="C20">
-        <v>12.79467683423342</v>
+        <v>23.93228108343778</v>
       </c>
       <c r="D20">
-        <v>5.795840535497616</v>
+        <v>4.060991371927613</v>
       </c>
       <c r="E20">
-        <v>9.729628491173735</v>
+        <v>11.08647293419487</v>
       </c>
       <c r="F20">
-        <v>36.36530539749575</v>
+        <v>46.72000965661643</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.75981618209854</v>
+        <v>25.02742665327879</v>
       </c>
       <c r="N20">
-        <v>18.50897166007399</v>
+        <v>12.28798882189962</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19549607187576</v>
+        <v>34.50565917663057</v>
       </c>
       <c r="C21">
-        <v>13.50231489355206</v>
+        <v>25.63051553876761</v>
       </c>
       <c r="D21">
-        <v>5.782348885664971</v>
+        <v>4.082440173938809</v>
       </c>
       <c r="E21">
-        <v>9.865384508578869</v>
+        <v>11.92024785335608</v>
       </c>
       <c r="F21">
-        <v>37.1385001133826</v>
+        <v>49.9253957086536</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.17949753376438</v>
+        <v>26.79431925781706</v>
       </c>
       <c r="N21">
-        <v>18.45719644957568</v>
+        <v>12.11683746719326</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.70634198437685</v>
+        <v>35.96871408799684</v>
       </c>
       <c r="C22">
-        <v>13.9476547921175</v>
+        <v>26.71889155445381</v>
       </c>
       <c r="D22">
-        <v>5.774483378245203</v>
+        <v>4.106043084291679</v>
       </c>
       <c r="E22">
-        <v>9.955715605511656</v>
+        <v>12.45830369466077</v>
       </c>
       <c r="F22">
-        <v>37.6454223416691</v>
+        <v>52.02780833160905</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.45333472478572</v>
+        <v>27.92726502008972</v>
       </c>
       <c r="N22">
-        <v>18.42510741093441</v>
+        <v>12.01567611517204</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.43485610602161</v>
+        <v>35.19045267729376</v>
       </c>
       <c r="C23">
-        <v>13.71155403406794</v>
+        <v>26.13976001480946</v>
       </c>
       <c r="D23">
-        <v>5.778593617984659</v>
+        <v>4.092483551486382</v>
       </c>
       <c r="E23">
-        <v>9.907364824328354</v>
+        <v>12.17163493165845</v>
       </c>
       <c r="F23">
-        <v>37.37477644998115</v>
+        <v>50.90650150539303</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.30725452786946</v>
+        <v>27.32436504987677</v>
       </c>
       <c r="N23">
-        <v>18.44207335981083</v>
+        <v>12.06859261499681</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.38197812009781</v>
+        <v>32.18126254752997</v>
       </c>
       <c r="C24">
-        <v>12.78282562389483</v>
+        <v>23.90411666051439</v>
       </c>
       <c r="D24">
-        <v>5.796076985422765</v>
+        <v>4.060784710556271</v>
       </c>
       <c r="E24">
-        <v>9.727438446226767</v>
+        <v>11.07270327762086</v>
       </c>
       <c r="F24">
-        <v>36.35270703503137</v>
+        <v>46.67038759122451</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.7529561269282</v>
+        <v>24.99813319734587</v>
       </c>
       <c r="N24">
-        <v>18.50984730871384</v>
+        <v>12.29094698053246</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.19967843479009</v>
+        <v>28.7781993323856</v>
       </c>
       <c r="C25">
-        <v>11.70955322661465</v>
+        <v>21.38158482988355</v>
       </c>
       <c r="D25">
-        <v>5.818961487626365</v>
+        <v>4.060151872079341</v>
       </c>
       <c r="E25">
-        <v>9.541012466094244</v>
+        <v>10.00349153080445</v>
       </c>
       <c r="F25">
-        <v>35.26264829728986</v>
+        <v>42.32111136403932</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.15634805218522</v>
+        <v>22.37585476780838</v>
       </c>
       <c r="N25">
-        <v>18.59040941440993</v>
+        <v>12.56853751039217</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.11614660427147</v>
+        <v>22.69834056955041</v>
       </c>
       <c r="C2">
-        <v>19.41152626607807</v>
+        <v>20.07946639900021</v>
       </c>
       <c r="D2">
-        <v>4.081514162198943</v>
+        <v>3.180661647982335</v>
       </c>
       <c r="E2">
-        <v>9.263226182751676</v>
+        <v>7.258760885071503</v>
       </c>
       <c r="F2">
-        <v>39.07340964056868</v>
+        <v>37.98440190660361</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.201170934771381</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.70674156834102</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.26235013587802</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.170716960839216</v>
       </c>
       <c r="M2">
-        <v>20.32993222266348</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.79841478287555</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.05711949797918</v>
+      </c>
+      <c r="P2">
+        <v>13.47605750986976</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20586217997982</v>
+        <v>21.23929097324714</v>
       </c>
       <c r="C3">
-        <v>17.99903521126046</v>
+        <v>18.74718877968955</v>
       </c>
       <c r="D3">
-        <v>4.106725240448883</v>
+        <v>3.084886761431508</v>
       </c>
       <c r="E3">
-        <v>8.757731702546884</v>
+        <v>6.983581152922389</v>
       </c>
       <c r="F3">
-        <v>36.84099457653428</v>
+        <v>36.49610854626607</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.529485424882883</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.969779262730249</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.72690573219035</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.021426033382895</v>
       </c>
       <c r="M3">
-        <v>18.86425681150143</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96750301723614</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.16359874144509</v>
+      </c>
+      <c r="P3">
+        <v>13.61358730527053</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.97814064316635</v>
+        <v>20.29231734988807</v>
       </c>
       <c r="C4">
-        <v>17.09160025717684</v>
+        <v>17.89029862412914</v>
       </c>
       <c r="D4">
-        <v>4.126693220435039</v>
+        <v>3.025707850311088</v>
       </c>
       <c r="E4">
-        <v>8.44555545351712</v>
+        <v>6.809750380833571</v>
       </c>
       <c r="F4">
-        <v>35.45544628275765</v>
+        <v>35.56018058522669</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.737350832414049</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.136951727199631</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.39473376564149</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.926992499179065</v>
       </c>
       <c r="M4">
-        <v>17.9232272760563</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.07720895715002</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.59191911178214</v>
+      </c>
+      <c r="P4">
+        <v>13.69827763486014</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46373521726533</v>
+        <v>19.88484808879521</v>
       </c>
       <c r="C5">
-        <v>16.71144701688575</v>
+        <v>17.53646427200097</v>
       </c>
       <c r="D5">
-        <v>4.135852471860743</v>
+        <v>3.003196644365242</v>
       </c>
       <c r="E5">
-        <v>8.31794268732914</v>
+        <v>6.738545040468533</v>
       </c>
       <c r="F5">
-        <v>34.88737666787026</v>
+        <v>35.15693650439668</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.82417002285582</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.209583167079653</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.24602618538802</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.887419332671235</v>
       </c>
       <c r="M5">
-        <v>17.52914033883411</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.12330974828032</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.35195994514741</v>
+      </c>
+      <c r="P5">
+        <v>13.73054322416084</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37745832314997</v>
+        <v>19.8056851587811</v>
       </c>
       <c r="C6">
-        <v>16.64768936817599</v>
+        <v>17.48333078270777</v>
       </c>
       <c r="D6">
-        <v>4.137432200198619</v>
+        <v>3.0015539890627</v>
       </c>
       <c r="E6">
-        <v>8.296730903736195</v>
+        <v>6.727706011414646</v>
       </c>
       <c r="F6">
-        <v>34.79285230925331</v>
+        <v>35.06925173886051</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.839283701281045</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.225648377828337</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.20589557635013</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.880331459388661</v>
       </c>
       <c r="M6">
-        <v>17.46305411813355</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.13104674155638</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.31009565143385</v>
+      </c>
+      <c r="P6">
+        <v>13.73307655974661</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.97126067690558</v>
+        <v>20.25822407156505</v>
       </c>
       <c r="C7">
-        <v>17.08651568763241</v>
+        <v>17.90208620798542</v>
       </c>
       <c r="D7">
-        <v>4.126812738970636</v>
+        <v>3.03105859749655</v>
       </c>
       <c r="E7">
-        <v>8.443835938137937</v>
+        <v>6.811648033344488</v>
       </c>
       <c r="F7">
-        <v>35.44779856408835</v>
+        <v>35.49970726536487</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.740133214296831</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.148388184621165</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.35100206533945</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.92518136883788</v>
       </c>
       <c r="M7">
-        <v>17.91795578660335</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.07782514445386</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.58417645331751</v>
+      </c>
+      <c r="P7">
+        <v>13.69103380268441</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.46865140586038</v>
+        <v>22.17075679360946</v>
       </c>
       <c r="C8">
-        <v>18.93266593170477</v>
+        <v>19.64825894104382</v>
       </c>
       <c r="D8">
-        <v>4.08920756511677</v>
+        <v>3.154859227445762</v>
       </c>
       <c r="E8">
-        <v>9.089326413849994</v>
+        <v>7.168489743045786</v>
       </c>
       <c r="F8">
-        <v>38.30687114439189</v>
+        <v>37.40657500749312</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.315172026551851</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.810098953856568</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.02482157548088</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.118181441379613</v>
       </c>
       <c r="M8">
-        <v>19.83292369622567</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.85543950467534</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.74824955340072</v>
+      </c>
+      <c r="P8">
+        <v>13.51349063616526</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.94754558484159</v>
+        <v>25.5606318526553</v>
       </c>
       <c r="C9">
-        <v>22.24777824966585</v>
+        <v>22.80449052166825</v>
       </c>
       <c r="D9">
-        <v>4.056548172292353</v>
+        <v>3.385763425972996</v>
       </c>
       <c r="E9">
-        <v>10.34055733258797</v>
+        <v>7.825397437429096</v>
       </c>
       <c r="F9">
-        <v>43.79237471068507</v>
+        <v>41.04743377030021</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.593522582597456</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.773476420968708</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.38707153229312</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.477240054937417</v>
       </c>
       <c r="M9">
-        <v>23.27598419287414</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.47066875172856</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.84948606145099</v>
+      </c>
+      <c r="P9">
+        <v>13.180049293062</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.00925451093282</v>
+        <v>27.79704059706733</v>
       </c>
       <c r="C10">
-        <v>24.51873375443935</v>
+        <v>24.84055953563054</v>
       </c>
       <c r="D10">
-        <v>4.066372835934972</v>
+        <v>3.540241121987446</v>
       </c>
       <c r="E10">
-        <v>11.37361851808524</v>
+        <v>8.178879957602405</v>
       </c>
       <c r="F10">
-        <v>47.80014227587253</v>
+        <v>43.27138713558183</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.116736378397803</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.197251857034718</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.2007640484172</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.66873073276675</v>
       </c>
       <c r="M10">
-        <v>25.63746146880491</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.22723134149834</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.12784284897457</v>
+      </c>
+      <c r="P10">
+        <v>12.90205862960519</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.35940642686012</v>
+        <v>28.17415032803511</v>
       </c>
       <c r="C11">
-        <v>25.52179418688219</v>
+        <v>24.83639943893336</v>
       </c>
       <c r="D11">
-        <v>4.08051874980968</v>
+        <v>3.493950910204038</v>
       </c>
       <c r="E11">
-        <v>11.8666604545963</v>
+        <v>7.55382841947344</v>
       </c>
       <c r="F11">
-        <v>49.71654230200461</v>
+        <v>41.64274414948214</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.99008131551161</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.306434685043055</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.25721694410433</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.321561956703664</v>
       </c>
       <c r="M11">
-        <v>26.68116923220595</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.12733489812991</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.45231555036622</v>
+      </c>
+      <c r="P11">
+        <v>12.53591990148245</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.86524402991419</v>
+        <v>28.06399842523154</v>
       </c>
       <c r="C12">
-        <v>25.89788164240551</v>
+        <v>24.39107147637259</v>
       </c>
       <c r="D12">
-        <v>4.087497199416003</v>
+        <v>3.449720056172499</v>
       </c>
       <c r="E12">
-        <v>12.05215263981664</v>
+        <v>7.180714651534411</v>
       </c>
       <c r="F12">
-        <v>50.43992033812892</v>
+        <v>39.845855734052</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.218634619308524</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.311812478398209</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.3366633382026</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.110466540134388</v>
       </c>
       <c r="M12">
-        <v>27.07259482112234</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.09131460469055</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.60913706116368</v>
+      </c>
+      <c r="P12">
+        <v>12.3302999098738</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.75653223578499</v>
+        <v>27.53556372073484</v>
       </c>
       <c r="C13">
-        <v>25.81704118602835</v>
+        <v>23.58197743832847</v>
       </c>
       <c r="D13">
-        <v>4.085918109937424</v>
+        <v>3.409485524558272</v>
       </c>
       <c r="E13">
-        <v>12.01225154317309</v>
+        <v>7.005730421310378</v>
       </c>
       <c r="F13">
-        <v>50.28421304044688</v>
+        <v>37.69672536227969</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.512378741543297</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.240192380229326</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.30664113335994</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.996811391689309</v>
       </c>
       <c r="M13">
-        <v>26.98845303520732</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.09898726371214</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.55797548355253</v>
+      </c>
+      <c r="P13">
+        <v>12.22540432365287</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.40112651866893</v>
+        <v>26.96272769845399</v>
       </c>
       <c r="C14">
-        <v>25.55280668971112</v>
+        <v>22.84291944064729</v>
       </c>
       <c r="D14">
-        <v>4.081058930520078</v>
+        <v>3.387603868288596</v>
       </c>
       <c r="E14">
-        <v>11.8819431816755</v>
+        <v>7.015928059920844</v>
       </c>
       <c r="F14">
-        <v>49.77609512817518</v>
+        <v>36.00052599145268</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.443780022508644</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.156527382275467</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.5225204985399</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.981236462977337</v>
       </c>
       <c r="M14">
-        <v>26.71344455621655</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.12433363236958</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.71442687551234</v>
+      </c>
+      <c r="P14">
+        <v>12.20123922126954</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.18274504074279</v>
+        <v>26.72273690921059</v>
       </c>
       <c r="C15">
-        <v>25.39048554580269</v>
+        <v>22.58703670034919</v>
       </c>
       <c r="D15">
-        <v>4.078301142323475</v>
+        <v>3.37818755577378</v>
       </c>
       <c r="E15">
-        <v>11.8019785813728</v>
+        <v>7.025086686128558</v>
       </c>
       <c r="F15">
-        <v>49.46458891926846</v>
+        <v>35.49439786170468</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.681735023146279</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.120251458221242</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.29549590198731</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.980664700103995</v>
       </c>
       <c r="M15">
-        <v>26.54451771313328</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.14010278905962</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.46210334385821</v>
+      </c>
+      <c r="P15">
+        <v>12.21125694428883</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.92021778968232</v>
+        <v>25.85057449472733</v>
       </c>
       <c r="C16">
-        <v>24.45262373557318</v>
+        <v>21.85273937112511</v>
       </c>
       <c r="D16">
-        <v>4.065662017329699</v>
+        <v>3.31505875748466</v>
       </c>
       <c r="E16">
-        <v>11.34120803965273</v>
+        <v>6.887998267342617</v>
       </c>
       <c r="F16">
-        <v>47.67451817695331</v>
+        <v>34.85037269681213</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.486189251932906</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.956903864677083</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.10309145454765</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.913083491380868</v>
       </c>
       <c r="M16">
-        <v>25.56868617961496</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.23399815156132</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.07470862716777</v>
+      </c>
+      <c r="P16">
+        <v>12.34630021636436</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.13523761980633</v>
+        <v>25.48667784260174</v>
       </c>
       <c r="C17">
-        <v>23.86996333249433</v>
+        <v>21.69454899569814</v>
       </c>
       <c r="D17">
-        <v>4.060540378448824</v>
+        <v>3.276308531841959</v>
       </c>
       <c r="E17">
-        <v>11.05600814338753</v>
+        <v>6.750032629922694</v>
       </c>
       <c r="F17">
-        <v>46.61024323409887</v>
+        <v>35.28524566598578</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.752386039443619</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.875779332095225</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.37859621387133</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.85685620648589</v>
       </c>
       <c r="M17">
-        <v>24.96261119333784</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.29453895220119</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.24167841171986</v>
+      </c>
+      <c r="P17">
+        <v>12.4600532424401</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67967702374565</v>
+        <v>25.55214327402458</v>
       </c>
       <c r="C18">
-        <v>23.53196907156437</v>
+        <v>22.01368232174975</v>
       </c>
       <c r="D18">
-        <v>4.058489755657789</v>
+        <v>3.271268075911201</v>
       </c>
       <c r="E18">
-        <v>10.89093489239373</v>
+        <v>6.741616865794361</v>
       </c>
       <c r="F18">
-        <v>46.01678684083162</v>
+        <v>36.73521827089748</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.486287917588454</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.855436175018939</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.1186208191652</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.874844696018769</v>
       </c>
       <c r="M18">
-        <v>24.61109792056471</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.33036352031083</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.90977668996432</v>
+      </c>
+      <c r="P18">
+        <v>12.58971402963754</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52471525591325</v>
+        <v>25.91470475855204</v>
       </c>
       <c r="C19">
-        <v>23.41702250835759</v>
+        <v>22.71069560031033</v>
       </c>
       <c r="D19">
-        <v>4.05794271627185</v>
+        <v>3.322820029240112</v>
       </c>
       <c r="E19">
-        <v>10.83485717703624</v>
+        <v>7.047738991507859</v>
       </c>
       <c r="F19">
-        <v>45.81569739172949</v>
+        <v>38.78837386745283</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>2.954021621007629</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.896072497505228</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.10930086739839</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.050598786604547</v>
       </c>
       <c r="M19">
-        <v>24.4915645754857</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.3426586143019</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.91224523992775</v>
+      </c>
+      <c r="P19">
+        <v>12.74141835732242</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.2192157040857</v>
+        <v>27.1493345823625</v>
       </c>
       <c r="C20">
-        <v>23.93228108343778</v>
+        <v>24.35209645011429</v>
       </c>
       <c r="D20">
-        <v>4.060991371927613</v>
+        <v>3.513680093704703</v>
       </c>
       <c r="E20">
-        <v>11.08647293419487</v>
+        <v>8.089074326461727</v>
       </c>
       <c r="F20">
-        <v>46.72000965661643</v>
+        <v>42.53702749610565</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.974442473298609</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.093032483708719</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.86520958471073</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.61279038786223</v>
       </c>
       <c r="M20">
-        <v>25.02742665327879</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.28798882189962</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.78130511672036</v>
+      </c>
+      <c r="P20">
+        <v>12.95162853184012</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.50565917663057</v>
+        <v>28.91764300511216</v>
       </c>
       <c r="C21">
-        <v>25.63051553876761</v>
+        <v>26.0065474551728</v>
       </c>
       <c r="D21">
-        <v>4.082440173938809</v>
+        <v>3.655560699331527</v>
       </c>
       <c r="E21">
-        <v>11.92024785335608</v>
+        <v>8.520821598142145</v>
       </c>
       <c r="F21">
-        <v>49.9253957086536</v>
+        <v>44.69383194217707</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.39587029175634</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.427240519029598</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.73464719090904</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.848965626293342</v>
       </c>
       <c r="M21">
-        <v>26.79431925781706</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11683746719326</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.94775664876335</v>
+      </c>
+      <c r="P21">
+        <v>12.78842096714633</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.96871408799684</v>
+        <v>30.01783470106885</v>
       </c>
       <c r="C22">
-        <v>26.71889155445381</v>
+        <v>26.9833707042688</v>
       </c>
       <c r="D22">
-        <v>4.106043084291679</v>
+        <v>3.733539773240897</v>
       </c>
       <c r="E22">
-        <v>12.45830369466077</v>
+        <v>8.740521483172543</v>
       </c>
       <c r="F22">
-        <v>52.02780833160905</v>
+        <v>45.98048397613753</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.660542415051407</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.636813192401416</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.26938089769056</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.972258592279622</v>
       </c>
       <c r="M22">
-        <v>27.92726502008972</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.01567611517204</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.61830047522899</v>
+      </c>
+      <c r="P22">
+        <v>12.67590396424712</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19045267729376</v>
+        <v>29.45970605930002</v>
       </c>
       <c r="C23">
-        <v>26.13976001480946</v>
+        <v>26.45165107018293</v>
       </c>
       <c r="D23">
-        <v>4.092483551486382</v>
+        <v>3.68633746111561</v>
       </c>
       <c r="E23">
-        <v>12.17163493165845</v>
+        <v>8.620849292337212</v>
       </c>
       <c r="F23">
-        <v>50.90650150539303</v>
+        <v>45.34856381592709</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.521258285225102</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.523015912051932</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.0271784752118</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.907932556801498</v>
       </c>
       <c r="M23">
-        <v>27.32436504987677</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.06859261499681</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.2667466855676</v>
+      </c>
+      <c r="P23">
+        <v>12.74443069959399</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.18126254752997</v>
+        <v>27.2126040751643</v>
       </c>
       <c r="C24">
-        <v>23.90411666051439</v>
+        <v>24.38760547110065</v>
       </c>
       <c r="D24">
-        <v>4.060784710556271</v>
+        <v>3.516567716938394</v>
       </c>
       <c r="E24">
-        <v>11.07270327762086</v>
+        <v>8.164812704341919</v>
       </c>
       <c r="F24">
-        <v>46.67038759122451</v>
+        <v>42.82172709816596</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.984056898886459</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.090879194969658</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.03441397952112</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.658337806332453</v>
       </c>
       <c r="M24">
-        <v>24.99813319734587</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.29094698053246</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.88307144848604</v>
+      </c>
+      <c r="P24">
+        <v>12.99039430945106</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.7781993323856</v>
+        <v>24.64357150074311</v>
       </c>
       <c r="C25">
-        <v>21.38158482988355</v>
+        <v>22.00346604029656</v>
       </c>
       <c r="D25">
-        <v>4.060151872079341</v>
+        <v>3.332726334072918</v>
       </c>
       <c r="E25">
-        <v>10.00349153080445</v>
+        <v>7.656287421576462</v>
       </c>
       <c r="F25">
-        <v>42.32111136403932</v>
+        <v>39.99600201101746</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.737995848125395</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.615504784377063</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.9520980271049</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.380231967149898</v>
       </c>
       <c r="M25">
-        <v>22.37585476780838</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.56853751039217</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>18.29479866414588</v>
+      </c>
+      <c r="P25">
+        <v>13.25695523765007</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.69834056955041</v>
+        <v>21.45926789247456</v>
       </c>
       <c r="C2">
-        <v>20.07946639900021</v>
+        <v>20.81431275832669</v>
       </c>
       <c r="D2">
-        <v>3.180661647982335</v>
+        <v>3.642392617588661</v>
       </c>
       <c r="E2">
-        <v>7.258760885071503</v>
+        <v>7.583545343382987</v>
       </c>
       <c r="F2">
-        <v>37.98440190660361</v>
+        <v>35.37500249324632</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.201170934771381</v>
+        <v>2.131365687162284</v>
       </c>
       <c r="I2">
-        <v>2.70674156834102</v>
+        <v>2.583167576013384</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>22.26235013587802</v>
+        <v>20.09613312170339</v>
       </c>
       <c r="L2">
-        <v>6.170716960839216</v>
+        <v>16.53212487016644</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.44252194308261</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.188628171341167</v>
       </c>
       <c r="O2">
-        <v>17.05711949797918</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.47605750986976</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.86619926945512</v>
+      </c>
+      <c r="R2">
+        <v>13.01606121335109</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.23929097324714</v>
+        <v>20.11013345184609</v>
       </c>
       <c r="C3">
-        <v>18.74718877968955</v>
+        <v>19.4219694998267</v>
       </c>
       <c r="D3">
-        <v>3.084886761431508</v>
+        <v>3.52781478770345</v>
       </c>
       <c r="E3">
-        <v>6.983581152922389</v>
+        <v>7.312948979164265</v>
       </c>
       <c r="F3">
-        <v>36.49610854626607</v>
+        <v>34.13473075030544</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.529485424882883</v>
+        <v>2.436837827578104</v>
       </c>
       <c r="I3">
-        <v>2.969779262730249</v>
+        <v>2.811401436483805</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>21.72690573219035</v>
+        <v>19.75607247504921</v>
       </c>
       <c r="L3">
-        <v>6.021426033382895</v>
+        <v>16.4236481145266</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.02163723966287</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.05406473073681</v>
       </c>
       <c r="O3">
-        <v>16.16359874144509</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.61358730527053</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.99233609872429</v>
+      </c>
+      <c r="R3">
+        <v>13.17552531294657</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.29231734988807</v>
+        <v>19.23260592146115</v>
       </c>
       <c r="C4">
-        <v>17.89029862412914</v>
+        <v>18.5261893236948</v>
       </c>
       <c r="D4">
-        <v>3.025707850311088</v>
+        <v>3.456983802265047</v>
       </c>
       <c r="E4">
-        <v>6.809750380833571</v>
+        <v>7.14206500419977</v>
       </c>
       <c r="F4">
-        <v>35.56018058522669</v>
+        <v>33.35578334337278</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.737350832414049</v>
+        <v>2.630485181295602</v>
       </c>
       <c r="I4">
-        <v>3.136951727199631</v>
+        <v>2.956991025957006</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>21.39473376564149</v>
+        <v>19.54539225128821</v>
       </c>
       <c r="L4">
-        <v>5.926992499179065</v>
+        <v>16.3496654781082</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.77906241534584</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.968905216998865</v>
       </c>
       <c r="O4">
-        <v>15.59191911178214</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.69827763486014</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.43280960409062</v>
+      </c>
+      <c r="R4">
+        <v>13.27392576364482</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.88484808879521</v>
+        <v>18.85442616588499</v>
       </c>
       <c r="C5">
-        <v>17.53646427200097</v>
+        <v>18.15570961235677</v>
       </c>
       <c r="D5">
-        <v>3.003196644365242</v>
+        <v>3.43003098580466</v>
       </c>
       <c r="E5">
-        <v>6.738545040468533</v>
+        <v>7.072099521295387</v>
       </c>
       <c r="F5">
-        <v>35.15693650439668</v>
+        <v>33.01884234899423</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.82417002285582</v>
+        <v>2.711410570647549</v>
       </c>
       <c r="I5">
-        <v>3.209583167079653</v>
+        <v>3.021237134732564</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>21.24602618538802</v>
+        <v>19.4478117466477</v>
       </c>
       <c r="L5">
-        <v>5.887419332671235</v>
+        <v>16.30841881833395</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.67663004395195</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.933205879595762</v>
       </c>
       <c r="O5">
-        <v>15.35195994514741</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.73054322416084</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.19791229431191</v>
+      </c>
+      <c r="R5">
+        <v>13.31259062548516</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.8056851587811</v>
+        <v>18.78079972477815</v>
       </c>
       <c r="C6">
-        <v>17.48333078270777</v>
+        <v>18.09939288215239</v>
       </c>
       <c r="D6">
-        <v>3.0015539890627</v>
+        <v>3.428033900758478</v>
       </c>
       <c r="E6">
-        <v>6.727706011414646</v>
+        <v>7.061458658972654</v>
       </c>
       <c r="F6">
-        <v>35.06925173886051</v>
+        <v>32.94376894755572</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.839283701281045</v>
+        <v>2.725487586450046</v>
       </c>
       <c r="I6">
-        <v>3.225648377828337</v>
+        <v>3.036533611773163</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>21.20589557635013</v>
+        <v>19.41779746933263</v>
       </c>
       <c r="L6">
-        <v>5.880331459388661</v>
+        <v>16.29019472366777</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.65023546124833</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.926807269712104</v>
       </c>
       <c r="O6">
-        <v>15.31009565143385</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.73307655974661</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.15699902491473</v>
+      </c>
+      <c r="R6">
+        <v>13.31710206418407</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.25822407156505</v>
+        <v>19.20064686106995</v>
       </c>
       <c r="C7">
-        <v>17.90208620798542</v>
+        <v>18.53671373960853</v>
       </c>
       <c r="D7">
-        <v>3.03105859749655</v>
+        <v>3.463350099833625</v>
       </c>
       <c r="E7">
-        <v>6.811648033344488</v>
+        <v>7.143959866617569</v>
       </c>
       <c r="F7">
-        <v>35.49970726536487</v>
+        <v>33.30035114683901</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.740133214296831</v>
+        <v>2.633038216819138</v>
       </c>
       <c r="I7">
-        <v>3.148388184621165</v>
+        <v>2.969966554778079</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>21.35100206533945</v>
+        <v>19.5067225832376</v>
       </c>
       <c r="L7">
-        <v>5.92518136883788</v>
+        <v>16.31894882098544</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.75107216708943</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.967261980577445</v>
       </c>
       <c r="O7">
-        <v>15.58417645331751</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.69103380268441</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.42543059174785</v>
+      </c>
+      <c r="R7">
+        <v>13.26930367638641</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.17075679360946</v>
+        <v>20.9713569617671</v>
       </c>
       <c r="C8">
-        <v>19.64825894104382</v>
+        <v>20.36156671052711</v>
       </c>
       <c r="D8">
-        <v>3.154859227445762</v>
+        <v>3.61165613975415</v>
       </c>
       <c r="E8">
-        <v>7.168489743045786</v>
+        <v>7.494854228873347</v>
       </c>
       <c r="F8">
-        <v>37.40657500749312</v>
+        <v>34.88688048628313</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.315172026551851</v>
+        <v>2.237321361988592</v>
       </c>
       <c r="I8">
-        <v>2.810098953856568</v>
+        <v>2.676731503522113</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>22.02482157548088</v>
+        <v>19.93122284693855</v>
       </c>
       <c r="L8">
-        <v>6.118181441379613</v>
+        <v>16.45876568569934</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.2585695789157</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.141278526250345</v>
       </c>
       <c r="O8">
-        <v>16.74824955340072</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.51349063616526</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.56446718131557</v>
+      </c>
+      <c r="R8">
+        <v>13.06456971592858</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.5606318526553</v>
+        <v>24.1489422225481</v>
       </c>
       <c r="C9">
-        <v>22.80449052166825</v>
+        <v>23.63299373201247</v>
       </c>
       <c r="D9">
-        <v>3.385763425972996</v>
+        <v>3.886838566745916</v>
       </c>
       <c r="E9">
-        <v>7.825397437429096</v>
+        <v>8.140448517656694</v>
       </c>
       <c r="F9">
-        <v>41.04743377030021</v>
+        <v>37.93361216911882</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.593522582597456</v>
+        <v>1.614418377415445</v>
       </c>
       <c r="I9">
-        <v>2.773476420968708</v>
+        <v>2.829361956254834</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>23.38707153229312</v>
+        <v>20.8123804985206</v>
       </c>
       <c r="L9">
-        <v>6.477240054937417</v>
+        <v>16.72495374992036</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.41405630441697</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.46463193265555</v>
       </c>
       <c r="O9">
-        <v>18.84948606145099</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.180049293062</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.61672252792026</v>
+      </c>
+      <c r="R9">
+        <v>12.674457852007</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.79704059706733</v>
+        <v>26.22156825454121</v>
       </c>
       <c r="C10">
-        <v>24.84055953563054</v>
+        <v>25.75478871248011</v>
       </c>
       <c r="D10">
-        <v>3.540241121987446</v>
+        <v>4.059810250400939</v>
       </c>
       <c r="E10">
-        <v>8.178879957602405</v>
+        <v>8.477086448938543</v>
       </c>
       <c r="F10">
-        <v>43.27138713558183</v>
+        <v>39.78154361760623</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.116736378397803</v>
+        <v>2.098806395619776</v>
       </c>
       <c r="I10">
-        <v>3.197251857034718</v>
+        <v>3.197702050996186</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>24.2007640484172</v>
+        <v>21.31477505495128</v>
       </c>
       <c r="L10">
-        <v>6.66873073276675</v>
+        <v>16.78823751859342</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.20621658128867</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.632351871898417</v>
       </c>
       <c r="O10">
-        <v>20.12784284897457</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.90205862960519</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.86186061181053</v>
+      </c>
+      <c r="R10">
+        <v>12.37175790898184</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.17415032803511</v>
+        <v>26.63484197022602</v>
       </c>
       <c r="C11">
-        <v>24.83639943893336</v>
+        <v>25.72405897586469</v>
       </c>
       <c r="D11">
-        <v>3.493950910204038</v>
+        <v>3.911592553275306</v>
       </c>
       <c r="E11">
-        <v>7.55382841947344</v>
+        <v>7.76575399852134</v>
       </c>
       <c r="F11">
-        <v>41.64274414948214</v>
+        <v>38.25142525260626</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.99008131551161</v>
+        <v>2.972476872299078</v>
       </c>
       <c r="I11">
-        <v>3.306434685043055</v>
+        <v>3.297129297443832</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>23.25721694410433</v>
+        <v>20.47159262341079</v>
       </c>
       <c r="L11">
-        <v>6.321561956703664</v>
+        <v>16.03643714982495</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.72656804924442</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.288140909002558</v>
       </c>
       <c r="O11">
-        <v>19.45231555036622</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.53591990148245</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.19272932366237</v>
+      </c>
+      <c r="R11">
+        <v>12.12963745570672</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.06399842523154</v>
+        <v>26.5918808759569</v>
       </c>
       <c r="C12">
-        <v>24.39107147637259</v>
+        <v>25.23936678640478</v>
       </c>
       <c r="D12">
-        <v>3.449720056172499</v>
+        <v>3.771706066890598</v>
       </c>
       <c r="E12">
-        <v>7.180714651534411</v>
+        <v>7.31141263127975</v>
       </c>
       <c r="F12">
-        <v>39.845855734052</v>
+        <v>36.61266676685947</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.218634619308524</v>
+        <v>4.207385154316576</v>
       </c>
       <c r="I12">
-        <v>3.311812478398209</v>
+        <v>3.303472665409704</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>22.3366633382026</v>
+        <v>19.69809716137157</v>
       </c>
       <c r="L12">
-        <v>6.110466540134388</v>
+        <v>15.43118301937137</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.18005316561601</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.08489004167285</v>
       </c>
       <c r="O12">
-        <v>18.60913706116368</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.3302999098738</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.36169706141635</v>
+      </c>
+      <c r="R12">
+        <v>12.02608197607556</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53556372073484</v>
+        <v>26.16319959569966</v>
       </c>
       <c r="C13">
-        <v>23.58197743832847</v>
+        <v>24.3759020062009</v>
       </c>
       <c r="D13">
-        <v>3.409485524558272</v>
+        <v>3.639963707246081</v>
       </c>
       <c r="E13">
-        <v>7.005730421310378</v>
+        <v>7.06127738482679</v>
       </c>
       <c r="F13">
-        <v>37.69672536227969</v>
+        <v>34.68721675460876</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.512378741543297</v>
+        <v>5.50739269789449</v>
       </c>
       <c r="I13">
-        <v>3.240192380229326</v>
+        <v>3.242870940946231</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.30664113335994</v>
+        <v>18.86962840561089</v>
       </c>
       <c r="L13">
-        <v>5.996811391689309</v>
+        <v>14.85199693593446</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.50023281828043</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.983250926210296</v>
       </c>
       <c r="O13">
-        <v>17.55797548355253</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.22540432365287</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.32831337859089</v>
+      </c>
+      <c r="R13">
+        <v>12.01289119489832</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.96272769845399</v>
+        <v>25.67666898069582</v>
       </c>
       <c r="C14">
-        <v>22.84291944064729</v>
+        <v>23.59067567334893</v>
       </c>
       <c r="D14">
-        <v>3.387603868288596</v>
+        <v>3.558408167563504</v>
       </c>
       <c r="E14">
-        <v>7.015928059920844</v>
+        <v>7.025948602148385</v>
       </c>
       <c r="F14">
-        <v>36.00052599145268</v>
+        <v>33.18098832247132</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.443780022508644</v>
+        <v>6.442426437490431</v>
       </c>
       <c r="I14">
-        <v>3.156527382275467</v>
+        <v>3.171700531230536</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.5225204985399</v>
+        <v>18.2541275038743</v>
       </c>
       <c r="L14">
-        <v>5.981236462977337</v>
+        <v>14.44807681881173</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.95607368254598</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.97756026402423</v>
       </c>
       <c r="O14">
-        <v>16.71442687551234</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.20123922126954</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.49982025700239</v>
+      </c>
+      <c r="R14">
+        <v>12.04620999834864</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.72273690921059</v>
+        <v>25.46552082430592</v>
       </c>
       <c r="C15">
-        <v>22.58703670034919</v>
+        <v>23.3198186056905</v>
       </c>
       <c r="D15">
-        <v>3.37818755577378</v>
+        <v>3.5368258861034</v>
       </c>
       <c r="E15">
-        <v>7.025086686128558</v>
+        <v>7.027309123082781</v>
       </c>
       <c r="F15">
-        <v>35.49439786170468</v>
+        <v>32.73685760914592</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.681735023146279</v>
+        <v>6.681899845721412</v>
       </c>
       <c r="I15">
-        <v>3.120251458221242</v>
+        <v>3.141193349975484</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.29549590198731</v>
+        <v>18.08124767426562</v>
       </c>
       <c r="L15">
-        <v>5.980664700103995</v>
+        <v>14.3445781862328</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.78769394805553</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.980172639254588</v>
       </c>
       <c r="O15">
-        <v>16.46210334385821</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.21125694428883</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.2524328962699</v>
+      </c>
+      <c r="R15">
+        <v>12.0689316465736</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.85057449472733</v>
+        <v>24.65875796014027</v>
       </c>
       <c r="C16">
-        <v>21.85273937112511</v>
+        <v>22.55531713259721</v>
       </c>
       <c r="D16">
-        <v>3.31505875748466</v>
+        <v>3.487961066832359</v>
       </c>
       <c r="E16">
-        <v>6.887998267342617</v>
+        <v>6.915479332063798</v>
       </c>
       <c r="F16">
-        <v>34.85037269681213</v>
+        <v>32.22158714644551</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.486189251932906</v>
+        <v>6.48293229919216</v>
       </c>
       <c r="I16">
-        <v>2.956903864677083</v>
+        <v>2.999800954143186</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.10309145454765</v>
+        <v>17.99173283567104</v>
       </c>
       <c r="L16">
-        <v>5.913083491380868</v>
+        <v>14.38510987152987</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.55654812590848</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.920416448913636</v>
       </c>
       <c r="O16">
-        <v>16.07470862716777</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.34630021636436</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.87586166459478</v>
+      </c>
+      <c r="R16">
+        <v>12.18837190235979</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48667784260174</v>
+        <v>24.29754945459331</v>
       </c>
       <c r="C17">
-        <v>21.69454899569814</v>
+        <v>22.39968933792176</v>
       </c>
       <c r="D17">
-        <v>3.276308531841959</v>
+        <v>3.491027585138907</v>
       </c>
       <c r="E17">
-        <v>6.750032629922694</v>
+        <v>6.820533763014771</v>
       </c>
       <c r="F17">
-        <v>35.28524566598578</v>
+        <v>32.65092197426058</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.752386039443619</v>
+        <v>5.746639314749091</v>
       </c>
       <c r="I17">
-        <v>2.875779332095225</v>
+        <v>2.929050271427526</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.37859621387133</v>
+        <v>18.25419588985821</v>
       </c>
       <c r="L17">
-        <v>5.85685620648589</v>
+        <v>14.63772649467675</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.67210827199539</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.865286395548592</v>
       </c>
       <c r="O17">
-        <v>16.24167841171986</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.4600532424401</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.04308723941165</v>
+      </c>
+      <c r="R17">
+        <v>12.26246735325059</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55214327402458</v>
+        <v>24.31001447207326</v>
       </c>
       <c r="C18">
-        <v>22.01368232174975</v>
+        <v>22.7510348801678</v>
       </c>
       <c r="D18">
-        <v>3.271268075911201</v>
+        <v>3.556295189944216</v>
       </c>
       <c r="E18">
-        <v>6.741616865794361</v>
+        <v>6.877290739264351</v>
       </c>
       <c r="F18">
-        <v>36.73521827089748</v>
+        <v>33.9755449024925</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.486287917588454</v>
+        <v>4.47898012472003</v>
       </c>
       <c r="I18">
-        <v>2.855436175018939</v>
+        <v>2.908732663490266</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.1186208191652</v>
+        <v>18.87716358645143</v>
       </c>
       <c r="L18">
-        <v>5.874844696018769</v>
+        <v>15.12918573345091</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.11261501509317</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.878095690990129</v>
       </c>
       <c r="O18">
-        <v>16.90977668996432</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.58971402963754</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.70218758646585</v>
+      </c>
+      <c r="R18">
+        <v>12.32188804556676</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.91470475855204</v>
+        <v>24.58259741743251</v>
       </c>
       <c r="C19">
-        <v>22.71069560031033</v>
+        <v>23.499289853364</v>
       </c>
       <c r="D19">
-        <v>3.322820029240112</v>
+        <v>3.700361759771635</v>
       </c>
       <c r="E19">
-        <v>7.047738991507859</v>
+        <v>7.259337980611937</v>
       </c>
       <c r="F19">
-        <v>38.78837386745283</v>
+        <v>35.82510506617162</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.954021621007629</v>
+        <v>2.955931544093795</v>
       </c>
       <c r="I19">
-        <v>2.896072497505228</v>
+        <v>2.943161431204512</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>22.10930086739839</v>
+        <v>19.6849779514207</v>
       </c>
       <c r="L19">
-        <v>6.050598786604547</v>
+        <v>15.73616757720085</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.73067097609163</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.043627534726365</v>
       </c>
       <c r="O19">
-        <v>17.91224523992775</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.74141835732242</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.68932876316783</v>
+      </c>
+      <c r="R19">
+        <v>12.38315430556708</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.1493345823625</v>
+        <v>25.62686630168004</v>
       </c>
       <c r="C20">
-        <v>24.35209645011429</v>
+        <v>25.24193558870433</v>
       </c>
       <c r="D20">
-        <v>3.513680093704703</v>
+        <v>4.031892560234507</v>
       </c>
       <c r="E20">
-        <v>8.089074326461727</v>
+        <v>8.391789266238963</v>
       </c>
       <c r="F20">
-        <v>42.53702749610565</v>
+        <v>39.15615339305106</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.974442473298609</v>
+        <v>1.967238531446582</v>
       </c>
       <c r="I20">
-        <v>3.093032483708719</v>
+        <v>3.111809627922594</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>23.86520958471073</v>
+        <v>21.07297862681242</v>
       </c>
       <c r="L20">
-        <v>6.61279038786223</v>
+        <v>16.6924897297058</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.9092900630827</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.583064253495888</v>
       </c>
       <c r="O20">
-        <v>19.78130511672036</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.95162853184012</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.52497631354306</v>
+      </c>
+      <c r="R20">
+        <v>12.43778735071731</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.91764300511216</v>
+        <v>27.23599559378385</v>
       </c>
       <c r="C21">
-        <v>26.0065474551728</v>
+        <v>26.96985919363966</v>
       </c>
       <c r="D21">
-        <v>3.655560699331527</v>
+        <v>4.205537578202518</v>
       </c>
       <c r="E21">
-        <v>8.520821598142145</v>
+        <v>8.822290111182717</v>
       </c>
       <c r="F21">
-        <v>44.69383194217707</v>
+        <v>40.98457469856415</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.39587029175634</v>
+        <v>2.356624704424296</v>
       </c>
       <c r="I21">
-        <v>3.427240519029598</v>
+        <v>3.400602503709243</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>24.73464719090904</v>
+        <v>21.66361909393598</v>
       </c>
       <c r="L21">
-        <v>6.848965626293342</v>
+        <v>16.88568594564326</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.69022845297477</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.798754053715468</v>
       </c>
       <c r="O21">
-        <v>20.94775664876335</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.78842096714633</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.6619547356818</v>
+      </c>
+      <c r="R21">
+        <v>12.23071700183124</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.01783470106885</v>
+        <v>28.23984103754303</v>
       </c>
       <c r="C22">
-        <v>26.9833707042688</v>
+        <v>27.989281828405</v>
       </c>
       <c r="D22">
-        <v>3.733539773240897</v>
+        <v>4.295698265777498</v>
       </c>
       <c r="E22">
-        <v>8.740521483172543</v>
+        <v>9.036671439230743</v>
       </c>
       <c r="F22">
-        <v>45.98048397613753</v>
+        <v>42.07373928764291</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.660542415051407</v>
+        <v>2.600641028082808</v>
       </c>
       <c r="I22">
-        <v>3.636813192401416</v>
+        <v>3.579841641871107</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>25.26938089769056</v>
+        <v>22.02889482757326</v>
       </c>
       <c r="L22">
-        <v>6.972258592279622</v>
+        <v>16.99141255292404</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.19048507172699</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.909378198866471</v>
       </c>
       <c r="O22">
-        <v>21.61830047522899</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.67590396424712</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.31407398070431</v>
+      </c>
+      <c r="R22">
+        <v>12.09276642073639</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.45970605930002</v>
+        <v>27.73117936851056</v>
       </c>
       <c r="C23">
-        <v>26.45165107018293</v>
+        <v>27.43589207579015</v>
       </c>
       <c r="D23">
-        <v>3.68633746111561</v>
+        <v>4.240642963535005</v>
       </c>
       <c r="E23">
-        <v>8.620849292337212</v>
+        <v>8.919765859895957</v>
       </c>
       <c r="F23">
-        <v>45.34856381592709</v>
+        <v>41.54285359812637</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.521258285225102</v>
+        <v>2.472197777913967</v>
       </c>
       <c r="I23">
-        <v>3.523015912051932</v>
+        <v>3.480769298017536</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>25.0271784752118</v>
+        <v>21.8726525753596</v>
       </c>
       <c r="L23">
-        <v>6.907932556801498</v>
+        <v>16.96322123598424</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.9536091547941</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.851664018006431</v>
       </c>
       <c r="O23">
-        <v>21.2667466855676</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.74443069959399</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.97205542254635</v>
+      </c>
+      <c r="R23">
+        <v>12.17114647586161</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.2126040751643</v>
+        <v>25.6792350049013</v>
       </c>
       <c r="C24">
-        <v>24.38760547110065</v>
+        <v>25.28340986758788</v>
       </c>
       <c r="D24">
-        <v>3.516567716938394</v>
+        <v>4.041941800241948</v>
       </c>
       <c r="E24">
-        <v>8.164812704341919</v>
+        <v>8.473583311859226</v>
       </c>
       <c r="F24">
-        <v>42.82172709816596</v>
+        <v>39.41596770859113</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.984056898886459</v>
+        <v>1.976055429380008</v>
       </c>
       <c r="I24">
-        <v>3.090879194969658</v>
+        <v>3.106791931895148</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>24.03441397952112</v>
+        <v>21.2183541576527</v>
       </c>
       <c r="L24">
-        <v>6.658337806332453</v>
+        <v>16.80327531769693</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.01813297770645</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.627500575245413</v>
       </c>
       <c r="O24">
-        <v>19.88307144848604</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.99039430945106</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.62481453399223</v>
+      </c>
+      <c r="R24">
+        <v>12.45997658569151</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.64357150074311</v>
+        <v>23.27294625202807</v>
       </c>
       <c r="C25">
-        <v>22.00346604029656</v>
+        <v>22.79362061846348</v>
       </c>
       <c r="D25">
-        <v>3.332726334072918</v>
+        <v>3.824264048548065</v>
       </c>
       <c r="E25">
-        <v>7.656287421576462</v>
+        <v>7.974540921277037</v>
       </c>
       <c r="F25">
-        <v>39.99600201101746</v>
+        <v>37.04468242088013</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.737995848125395</v>
+        <v>1.701098612283615</v>
       </c>
       <c r="I25">
-        <v>2.615504784377063</v>
+        <v>2.694871693435404</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>22.9520980271049</v>
+        <v>20.51270083899203</v>
       </c>
       <c r="L25">
-        <v>6.380231967149898</v>
+        <v>16.61162788469972</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.04285458940199</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.377328426661294</v>
       </c>
       <c r="O25">
-        <v>18.29479866414588</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.25695523765007</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.07572617386736</v>
+      </c>
+      <c r="R25">
+        <v>12.77179762668908</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
